--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4327,28 +4327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10011.11588514634</v>
+        <v>10270.03157815627</v>
       </c>
       <c r="AB2" t="n">
-        <v>13697.65041332011</v>
+        <v>14051.91028705053</v>
       </c>
       <c r="AC2" t="n">
-        <v>12390.36588264542</v>
+        <v>12710.81569123385</v>
       </c>
       <c r="AD2" t="n">
-        <v>10011115.88514634</v>
+        <v>10270031.57815627</v>
       </c>
       <c r="AE2" t="n">
-        <v>13697650.41332011</v>
+        <v>14051910.28705053</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.174520643616316e-07</v>
+        <v>7.459922272541742e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.73541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>12390365.88264542</v>
+        <v>12710815.69123385</v>
       </c>
     </row>
     <row r="3">
@@ -4433,28 +4433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3350.518385962764</v>
+        <v>3488.481678489909</v>
       </c>
       <c r="AB3" t="n">
-        <v>4584.327070113486</v>
+        <v>4773.094533460036</v>
       </c>
       <c r="AC3" t="n">
-        <v>4146.805328685135</v>
+        <v>4317.557090266682</v>
       </c>
       <c r="AD3" t="n">
-        <v>3350518.385962764</v>
+        <v>3488481.678489909</v>
       </c>
       <c r="AE3" t="n">
-        <v>4584327.070113486</v>
+        <v>4773094.533460037</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.752373978735572e-07</v>
+        <v>1.405965051929561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.16458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>4146805.328685135</v>
+        <v>4317557.090266682</v>
       </c>
     </row>
     <row r="4">
@@ -4539,28 +4539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2570.447566490835</v>
+        <v>2691.229374773032</v>
       </c>
       <c r="AB4" t="n">
-        <v>3516.999760616215</v>
+        <v>3682.25875922524</v>
       </c>
       <c r="AC4" t="n">
-        <v>3181.342239603036</v>
+        <v>3330.829151327272</v>
       </c>
       <c r="AD4" t="n">
-        <v>2570447.566490835</v>
+        <v>2691229.374773032</v>
       </c>
       <c r="AE4" t="n">
-        <v>3516999.760616214</v>
+        <v>3682258.75922524</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.142566836222244e-06</v>
+        <v>1.647197948648066e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>3181342.239603036</v>
+        <v>3330829.151327272</v>
       </c>
     </row>
     <row r="5">
@@ -4645,28 +4645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2264.822329038658</v>
+        <v>2376.970769525371</v>
       </c>
       <c r="AB5" t="n">
-        <v>3098.829827500244</v>
+        <v>3252.276271414183</v>
       </c>
       <c r="AC5" t="n">
-        <v>2803.081857998483</v>
+        <v>2941.883588668706</v>
       </c>
       <c r="AD5" t="n">
-        <v>2264822.329038658</v>
+        <v>2376970.769525371</v>
       </c>
       <c r="AE5" t="n">
-        <v>3098829.827500244</v>
+        <v>3252276.271414183</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.229951608297975e-06</v>
+        <v>1.77317746489426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.7125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2803081.857998483</v>
+        <v>2941883.588668706</v>
       </c>
     </row>
     <row r="6">
@@ -4751,28 +4751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2088.373764571804</v>
+        <v>2191.974178117609</v>
       </c>
       <c r="AB6" t="n">
-        <v>2857.405117235246</v>
+        <v>2999.155773576462</v>
       </c>
       <c r="AC6" t="n">
-        <v>2584.698383239584</v>
+        <v>2712.920555887777</v>
       </c>
       <c r="AD6" t="n">
-        <v>2088373.764571804</v>
+        <v>2191974.178117609</v>
       </c>
       <c r="AE6" t="n">
-        <v>2857405.117235246</v>
+        <v>2999155.773576462</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.286554766170067e-06</v>
+        <v>1.85478022333086e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.62291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2584698.383239584</v>
+        <v>2712920.555887777</v>
       </c>
     </row>
     <row r="7">
@@ -4857,28 +4857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1971.092144993402</v>
+        <v>2074.607217684632</v>
       </c>
       <c r="AB7" t="n">
-        <v>2696.935231228189</v>
+        <v>2838.569120447032</v>
       </c>
       <c r="AC7" t="n">
-        <v>2439.543517932141</v>
+        <v>2567.66006754835</v>
       </c>
       <c r="AD7" t="n">
-        <v>1971092.144993402</v>
+        <v>2074607.217684632</v>
       </c>
       <c r="AE7" t="n">
-        <v>2696935.23122819</v>
+        <v>2838569.120447032</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324338832893965e-06</v>
+        <v>1.909252167751168e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.94791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2439543.517932141</v>
+        <v>2567660.067548349</v>
       </c>
     </row>
     <row r="8">
@@ -4963,28 +4963,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1888.165802900927</v>
+        <v>1991.510283391565</v>
       </c>
       <c r="AB8" t="n">
-        <v>2583.471751525253</v>
+        <v>2724.872228969249</v>
       </c>
       <c r="AC8" t="n">
-        <v>2336.908833485058</v>
+        <v>2464.814247818616</v>
       </c>
       <c r="AD8" t="n">
-        <v>1888165.802900927</v>
+        <v>1991510.283391565</v>
       </c>
       <c r="AE8" t="n">
-        <v>2583471.751525253</v>
+        <v>2724872.228969248</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.352056874119989e-06</v>
+        <v>1.949212281418575e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.47916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2336908.833485059</v>
+        <v>2464814.247818616</v>
       </c>
     </row>
     <row r="9">
@@ -5069,28 +5069,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1820.716591263327</v>
+        <v>1915.598385667625</v>
       </c>
       <c r="AB9" t="n">
-        <v>2491.184764513482</v>
+        <v>2621.006221506787</v>
       </c>
       <c r="AC9" t="n">
-        <v>2253.429586988092</v>
+        <v>2370.861066331514</v>
       </c>
       <c r="AD9" t="n">
-        <v>1820716.591263327</v>
+        <v>1915598.385667625</v>
       </c>
       <c r="AE9" t="n">
-        <v>2491184.764513482</v>
+        <v>2621006.221506787</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.374085422673304e-06</v>
+        <v>1.980970055964777e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.11875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2253429.586988092</v>
+        <v>2370861.066331514</v>
       </c>
     </row>
     <row r="10">
@@ -5175,28 +5175,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1753.339836720109</v>
+        <v>1856.769568556768</v>
       </c>
       <c r="AB10" t="n">
-        <v>2398.996916494826</v>
+        <v>2540.514038591471</v>
       </c>
       <c r="AC10" t="n">
-        <v>2170.040017797879</v>
+        <v>2298.050944382148</v>
       </c>
       <c r="AD10" t="n">
-        <v>1753339.836720109</v>
+        <v>1856769.568556768</v>
       </c>
       <c r="AE10" t="n">
-        <v>2398996.916494826</v>
+        <v>2540514.038591471</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.391591553973951e-06</v>
+        <v>2.006208022491561e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.84166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2170040.017797879</v>
+        <v>2298050.944382148</v>
       </c>
     </row>
     <row r="11">
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1738.004663121072</v>
+        <v>1841.43439495773</v>
       </c>
       <c r="AB11" t="n">
-        <v>2378.014655436511</v>
+        <v>2519.531777533156</v>
       </c>
       <c r="AC11" t="n">
-        <v>2151.060274286182</v>
+        <v>2279.07120087045</v>
       </c>
       <c r="AD11" t="n">
-        <v>1738004.663121072</v>
+        <v>1841434.39495773</v>
       </c>
       <c r="AE11" t="n">
-        <v>2378014.655436512</v>
+        <v>2519531.777533156</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.390132709698897e-06</v>
+        <v>2.004104858614329e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.8625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2151060.274286182</v>
+        <v>2279071.200870451</v>
       </c>
     </row>
     <row r="12">
@@ -5387,28 +5387,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1660.803343097532</v>
+        <v>1755.77038884785</v>
       </c>
       <c r="AB12" t="n">
-        <v>2272.38440349844</v>
+        <v>2402.322505144394</v>
       </c>
       <c r="AC12" t="n">
-        <v>2055.511225340089</v>
+        <v>2173.048216934224</v>
       </c>
       <c r="AD12" t="n">
-        <v>1660803.343097531</v>
+        <v>1755770.38884785</v>
       </c>
       <c r="AE12" t="n">
-        <v>2272384.40349844</v>
+        <v>2402322.505144394</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.412744795962233e-06</v>
+        <v>2.036703898711425e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.5125</v>
       </c>
       <c r="AH12" t="n">
-        <v>2055511.22534009</v>
+        <v>2173048.216934224</v>
       </c>
     </row>
     <row r="13">
@@ -5493,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1615.805797765221</v>
+        <v>1710.602251314947</v>
       </c>
       <c r="AB13" t="n">
-        <v>2210.816776823177</v>
+        <v>2340.521466694284</v>
       </c>
       <c r="AC13" t="n">
-        <v>1999.819526544007</v>
+        <v>2117.145382855491</v>
       </c>
       <c r="AD13" t="n">
-        <v>1615805.797765221</v>
+        <v>1710602.251314947</v>
       </c>
       <c r="AE13" t="n">
-        <v>2210816.776823177</v>
+        <v>2340521.466694284</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.4226649370326e-06</v>
+        <v>2.051005413076601e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.3625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1999819.526544007</v>
+        <v>2117145.382855491</v>
       </c>
     </row>
     <row r="14">
@@ -5599,28 +5599,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1590.371904895801</v>
+        <v>1685.168358445527</v>
       </c>
       <c r="AB14" t="n">
-        <v>2176.017002535075</v>
+        <v>2305.721692406182</v>
       </c>
       <c r="AC14" t="n">
-        <v>1968.340993872172</v>
+        <v>2085.666850183656</v>
       </c>
       <c r="AD14" t="n">
-        <v>1590371.904895801</v>
+        <v>1685168.358445527</v>
       </c>
       <c r="AE14" t="n">
-        <v>2176017.002535075</v>
+        <v>2305721.692406182</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.42835442970531e-06</v>
+        <v>2.059207752197806e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.27916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1968340.993872172</v>
+        <v>2085666.850183656</v>
       </c>
     </row>
     <row r="15">
@@ -5705,28 +5705,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1594.278833664856</v>
+        <v>1689.075287214582</v>
       </c>
       <c r="AB15" t="n">
-        <v>2181.362634838428</v>
+        <v>2311.067324709535</v>
       </c>
       <c r="AC15" t="n">
-        <v>1973.176446531135</v>
+        <v>2090.502302842618</v>
       </c>
       <c r="AD15" t="n">
-        <v>1594278.833664856</v>
+        <v>1689075.287214582</v>
       </c>
       <c r="AE15" t="n">
-        <v>2181362.634838428</v>
+        <v>2311067.324709535</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.427770891995289e-06</v>
+        <v>2.058366486646914e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.2875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1973176.446531135</v>
+        <v>2090502.302842618</v>
       </c>
     </row>
     <row r="16">
@@ -5811,28 +5811,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1597.795261436975</v>
+        <v>1692.591714986701</v>
       </c>
       <c r="AB16" t="n">
-        <v>2186.173966450086</v>
+        <v>2315.878656321193</v>
       </c>
       <c r="AC16" t="n">
-        <v>1977.528591406523</v>
+        <v>2094.854447718006</v>
       </c>
       <c r="AD16" t="n">
-        <v>1597795.261436975</v>
+        <v>1692591.714986701</v>
       </c>
       <c r="AE16" t="n">
-        <v>2186173.966450086</v>
+        <v>2315878.656321193</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.429229736270343e-06</v>
+        <v>2.060469650524145e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.26458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1977528.591406523</v>
+        <v>2094854.447718006</v>
       </c>
     </row>
   </sheetData>
@@ -6108,28 +6108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6025.217759289912</v>
+        <v>6218.733249708962</v>
       </c>
       <c r="AB2" t="n">
-        <v>8243.968752108269</v>
+        <v>8508.745183400531</v>
       </c>
       <c r="AC2" t="n">
-        <v>7457.175944889557</v>
+        <v>7696.682485195332</v>
       </c>
       <c r="AD2" t="n">
-        <v>6025217.759289912</v>
+        <v>6218733.249708962</v>
       </c>
       <c r="AE2" t="n">
-        <v>8243968.752108268</v>
+        <v>8508745.183400532</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.81684858235125e-07</v>
+        <v>9.97960988185673e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>7457175.944889558</v>
+        <v>7696682.485195332</v>
       </c>
     </row>
     <row r="3">
@@ -6214,28 +6214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2624.657219475488</v>
+        <v>2750.833231945962</v>
       </c>
       <c r="AB3" t="n">
-        <v>3591.171799390923</v>
+        <v>3763.811386145842</v>
       </c>
       <c r="AC3" t="n">
-        <v>3248.435403098194</v>
+        <v>3404.598509994398</v>
       </c>
       <c r="AD3" t="n">
-        <v>2624657.219475488</v>
+        <v>2750833.231945962</v>
       </c>
       <c r="AE3" t="n">
-        <v>3591171.799390923</v>
+        <v>3763811.386145842</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.101531498839534e-06</v>
+        <v>1.612600675839545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3248435.403098193</v>
+        <v>3404598.509994398</v>
       </c>
     </row>
     <row r="4">
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2103.569397096906</v>
+        <v>2212.825311111355</v>
       </c>
       <c r="AB4" t="n">
-        <v>2878.196452040083</v>
+        <v>3027.685213625572</v>
       </c>
       <c r="AC4" t="n">
-        <v>2603.505422231469</v>
+        <v>2738.72718621992</v>
       </c>
       <c r="AD4" t="n">
-        <v>2103569.397096906</v>
+        <v>2212825.311111355</v>
       </c>
       <c r="AE4" t="n">
-        <v>2878196.452040083</v>
+        <v>3027685.213625573</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252597813449532e-06</v>
+        <v>1.833756077472014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>2603505.422231469</v>
+        <v>2738727.18621992</v>
       </c>
     </row>
     <row r="5">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1874.386648636658</v>
+        <v>1975.395731296694</v>
       </c>
       <c r="AB5" t="n">
-        <v>2564.618504767497</v>
+        <v>2702.823587869183</v>
       </c>
       <c r="AC5" t="n">
-        <v>2319.854914137165</v>
+        <v>2444.869898079678</v>
       </c>
       <c r="AD5" t="n">
-        <v>1874386.648636658</v>
+        <v>1975395.731296694</v>
       </c>
       <c r="AE5" t="n">
-        <v>2564618.504767497</v>
+        <v>2702823.587869183</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331224736438352e-06</v>
+        <v>1.948862934865136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.61666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2319854.914137165</v>
+        <v>2444869.898079677</v>
       </c>
     </row>
     <row r="6">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1738.417670463338</v>
+        <v>1839.341412268803</v>
       </c>
       <c r="AB6" t="n">
-        <v>2378.579750302799</v>
+        <v>2516.668066282287</v>
       </c>
       <c r="AC6" t="n">
-        <v>2151.571437291546</v>
+        <v>2276.48079820212</v>
       </c>
       <c r="AD6" t="n">
-        <v>1738417.670463338</v>
+        <v>1839341.412268803</v>
       </c>
       <c r="AE6" t="n">
-        <v>2378579.750302799</v>
+        <v>2516668.066282287</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379970410383437e-06</v>
+        <v>2.020224767759529e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.78541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2151571.437291546</v>
+        <v>2276480.79820212</v>
       </c>
     </row>
     <row r="7">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1646.751583590067</v>
+        <v>1739.25799134908</v>
       </c>
       <c r="AB7" t="n">
-        <v>2253.158166220449</v>
+        <v>2379.729514411012</v>
       </c>
       <c r="AC7" t="n">
-        <v>2038.119913163717</v>
+        <v>2152.611469526974</v>
       </c>
       <c r="AD7" t="n">
-        <v>1646751.583590067</v>
+        <v>1739257.99134908</v>
       </c>
       <c r="AE7" t="n">
-        <v>2253158.166220449</v>
+        <v>2379729.514411012</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413322713609021e-06</v>
+        <v>2.069051285003061e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.24583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2038119.913163717</v>
+        <v>2152611.469526974</v>
       </c>
     </row>
     <row r="8">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1560.180409456609</v>
+        <v>1661.018810407503</v>
       </c>
       <c r="AB8" t="n">
-        <v>2134.707666520399</v>
+        <v>2272.679215377689</v>
       </c>
       <c r="AC8" t="n">
-        <v>1930.974162908719</v>
+        <v>2055.777900787354</v>
       </c>
       <c r="AD8" t="n">
-        <v>1560180.409456609</v>
+        <v>1661018.810407503</v>
       </c>
       <c r="AE8" t="n">
-        <v>2134707.666520399</v>
+        <v>2272679.215377689</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439280162273276e-06</v>
+        <v>2.107052013355493e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.84375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1930974.162908719</v>
+        <v>2055777.900787354</v>
       </c>
     </row>
     <row r="9">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1474.693863868787</v>
+        <v>1567.114930773228</v>
       </c>
       <c r="AB9" t="n">
-        <v>2017.74120344692</v>
+        <v>2144.195784515286</v>
       </c>
       <c r="AC9" t="n">
-        <v>1825.170814907511</v>
+        <v>1939.55674823883</v>
       </c>
       <c r="AD9" t="n">
-        <v>1474693.863868786</v>
+        <v>1567114.930773227</v>
       </c>
       <c r="AE9" t="n">
-        <v>2017741.20344692</v>
+        <v>2144195.784515285</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.466444934131218e-06</v>
+        <v>2.146820217445248e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.43958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1825170.814907511</v>
+        <v>1939556.74823883</v>
       </c>
     </row>
     <row r="10">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1451.722654123487</v>
+        <v>1544.143721027928</v>
       </c>
       <c r="AB10" t="n">
-        <v>1986.310980855151</v>
+        <v>2112.765561923516</v>
       </c>
       <c r="AC10" t="n">
-        <v>1796.740248647306</v>
+        <v>1911.126181978625</v>
       </c>
       <c r="AD10" t="n">
-        <v>1451722.654123487</v>
+        <v>1544143.721027928</v>
       </c>
       <c r="AE10" t="n">
-        <v>1986310.980855151</v>
+        <v>2112765.561923516</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.467350426526483e-06</v>
+        <v>2.14814582424824e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.42708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1796740.248647306</v>
+        <v>1911126.181978625</v>
       </c>
     </row>
     <row r="11">
@@ -7062,28 +7062,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1446.214376398887</v>
+        <v>1538.635443303328</v>
       </c>
       <c r="AB11" t="n">
-        <v>1978.774312264291</v>
+        <v>2105.228893332656</v>
       </c>
       <c r="AC11" t="n">
-        <v>1789.922869128977</v>
+        <v>1904.308802460296</v>
       </c>
       <c r="AD11" t="n">
-        <v>1446214.376398887</v>
+        <v>1538635.443303328</v>
       </c>
       <c r="AE11" t="n">
-        <v>1978774.312264291</v>
+        <v>2105228.893332656</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.47067056530912e-06</v>
+        <v>2.153006382525876e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.37916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1789922.869128977</v>
+        <v>1904308.802460296</v>
       </c>
     </row>
     <row r="12">
@@ -7168,28 +7168,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1453.009626063719</v>
+        <v>1545.43069296816</v>
       </c>
       <c r="AB12" t="n">
-        <v>1988.071872640972</v>
+        <v>2114.526453709336</v>
       </c>
       <c r="AC12" t="n">
-        <v>1798.333083392515</v>
+        <v>1912.719016723833</v>
       </c>
       <c r="AD12" t="n">
-        <v>1453009.626063719</v>
+        <v>1545430.69296816</v>
       </c>
       <c r="AE12" t="n">
-        <v>1988071.872640972</v>
+        <v>2114526.453709336</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.470519649909909e-06</v>
+        <v>2.152785448058711e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.37916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1798333.083392515</v>
+        <v>1912719.016723834</v>
       </c>
     </row>
   </sheetData>
@@ -7465,28 +7465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1958.061637248305</v>
+        <v>2074.40037606131</v>
       </c>
       <c r="AB2" t="n">
-        <v>2679.106315665918</v>
+        <v>2838.286110612795</v>
       </c>
       <c r="AC2" t="n">
-        <v>2423.416169048093</v>
+        <v>2567.404067775485</v>
       </c>
       <c r="AD2" t="n">
-        <v>1958061.637248305</v>
+        <v>2074400.376061311</v>
       </c>
       <c r="AE2" t="n">
-        <v>2679106.315665918</v>
+        <v>2838286.110612795</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.194458366473544e-06</v>
+        <v>1.847974528412683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.37083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2423416.169048093</v>
+        <v>2567404.067775485</v>
       </c>
     </row>
     <row r="3">
@@ -7571,28 +7571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1269.605465610689</v>
+        <v>1362.812930421567</v>
       </c>
       <c r="AB3" t="n">
-        <v>1737.130209088627</v>
+        <v>1864.660774466006</v>
       </c>
       <c r="AC3" t="n">
-        <v>1571.340940010769</v>
+        <v>1686.700167218804</v>
       </c>
       <c r="AD3" t="n">
-        <v>1269605.465610689</v>
+        <v>1362812.930421568</v>
       </c>
       <c r="AE3" t="n">
-        <v>1737130.209088627</v>
+        <v>1864660.774466006</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.49218886018921e-06</v>
+        <v>2.308600351933565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.5125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1571340.940010769</v>
+        <v>1686700.167218804</v>
       </c>
     </row>
     <row r="4">
@@ -7677,28 +7677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1113.696951068052</v>
+        <v>1199.05187579867</v>
       </c>
       <c r="AB4" t="n">
-        <v>1523.809301293169</v>
+        <v>1640.595674903117</v>
       </c>
       <c r="AC4" t="n">
-        <v>1378.379080257535</v>
+        <v>1484.019526280854</v>
       </c>
       <c r="AD4" t="n">
-        <v>1113696.951068052</v>
+        <v>1199051.87579867</v>
       </c>
       <c r="AE4" t="n">
-        <v>1523809.301293169</v>
+        <v>1640595.674903117</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.572178670435218e-06</v>
+        <v>2.432354461759594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.31458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1378379.080257535</v>
+        <v>1484019.526280854</v>
       </c>
     </row>
     <row r="5">
@@ -7783,28 +7783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1121.224930079187</v>
+        <v>1206.579854809805</v>
       </c>
       <c r="AB5" t="n">
-        <v>1534.109414287198</v>
+        <v>1650.895787897146</v>
       </c>
       <c r="AC5" t="n">
-        <v>1387.696164923713</v>
+        <v>1493.336610947033</v>
       </c>
       <c r="AD5" t="n">
-        <v>1121224.930079187</v>
+        <v>1206579.854809805</v>
       </c>
       <c r="AE5" t="n">
-        <v>1534109.414287198</v>
+        <v>1650895.787897146</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.5720102708347e-06</v>
+        <v>2.43209392679154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.31875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1387696.164923713</v>
+        <v>1493336.610947032</v>
       </c>
     </row>
   </sheetData>
@@ -8080,28 +8080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2929.985232712192</v>
+        <v>3074.200930214451</v>
       </c>
       <c r="AB2" t="n">
-        <v>4008.935057222675</v>
+        <v>4206.257336892819</v>
       </c>
       <c r="AC2" t="n">
-        <v>3626.327921936883</v>
+        <v>3804.81804017886</v>
       </c>
       <c r="AD2" t="n">
-        <v>2929985.232712192</v>
+        <v>3074200.930214451</v>
       </c>
       <c r="AE2" t="n">
-        <v>4008935.057222676</v>
+        <v>4206257.336892819</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.890085795913568e-07</v>
+        <v>1.494682701071265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3626327.921936883</v>
+        <v>3804818.040178861</v>
       </c>
     </row>
     <row r="3">
@@ -8186,28 +8186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1711.836508911976</v>
+        <v>1815.944968364063</v>
       </c>
       <c r="AB3" t="n">
-        <v>2342.210232390141</v>
+        <v>2484.656019553564</v>
       </c>
       <c r="AC3" t="n">
-        <v>2118.672975123533</v>
+        <v>2247.523936283997</v>
       </c>
       <c r="AD3" t="n">
-        <v>1711836.508911976</v>
+        <v>1815944.968364063</v>
       </c>
       <c r="AE3" t="n">
-        <v>2342210.232390141</v>
+        <v>2484656.019553564</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.335540173450456e-06</v>
+        <v>2.018393808744223e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.12916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2118672.975123533</v>
+        <v>2247523.936283997</v>
       </c>
     </row>
     <row r="4">
@@ -8292,28 +8292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1434.394364869189</v>
+        <v>1522.630575006931</v>
       </c>
       <c r="AB4" t="n">
-        <v>1962.601651027253</v>
+        <v>2083.330326444569</v>
       </c>
       <c r="AC4" t="n">
-        <v>1775.293703981929</v>
+        <v>1884.500204061176</v>
       </c>
       <c r="AD4" t="n">
-        <v>1434394.364869189</v>
+        <v>1522630.575006931</v>
       </c>
       <c r="AE4" t="n">
-        <v>1962601.651027253</v>
+        <v>2083330.326444569</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.456044883913778e-06</v>
+        <v>2.200511850835982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.05</v>
       </c>
       <c r="AH4" t="n">
-        <v>1775293.703981929</v>
+        <v>1884500.204061176</v>
       </c>
     </row>
     <row r="5">
@@ -8398,28 +8398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1282.151825064942</v>
+        <v>1370.302694348112</v>
       </c>
       <c r="AB5" t="n">
-        <v>1754.296691600251</v>
+        <v>1874.908599895368</v>
       </c>
       <c r="AC5" t="n">
-        <v>1586.869077524793</v>
+        <v>1695.969954572101</v>
       </c>
       <c r="AD5" t="n">
-        <v>1282151.825064942</v>
+        <v>1370302.694348112</v>
       </c>
       <c r="AE5" t="n">
-        <v>1754296.691600251</v>
+        <v>1874908.599895368</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.520002597889632e-06</v>
+        <v>2.297170758202864e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.08125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1586869.077524793</v>
+        <v>1695969.954572101</v>
       </c>
     </row>
     <row r="6">
@@ -8504,28 +8504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1226.605681308325</v>
+        <v>1322.692585740116</v>
       </c>
       <c r="AB6" t="n">
-        <v>1678.296007189534</v>
+        <v>1809.766348888157</v>
       </c>
       <c r="AC6" t="n">
-        <v>1518.121791766604</v>
+        <v>1637.044788573294</v>
       </c>
       <c r="AD6" t="n">
-        <v>1226605.681308325</v>
+        <v>1322692.585740116</v>
       </c>
       <c r="AE6" t="n">
-        <v>1678296.007189534</v>
+        <v>1809766.348888157</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.538207186502407e-06</v>
+        <v>2.324683243171272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.81875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1518121.791766604</v>
+        <v>1637044.788573294</v>
       </c>
     </row>
     <row r="7">
@@ -8610,28 +8610,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1230.892399907259</v>
+        <v>1326.97930433905</v>
       </c>
       <c r="AB7" t="n">
-        <v>1684.161284693272</v>
+        <v>1815.631626391895</v>
       </c>
       <c r="AC7" t="n">
-        <v>1523.427295417354</v>
+        <v>1642.350292224045</v>
       </c>
       <c r="AD7" t="n">
-        <v>1230892.399907259</v>
+        <v>1326979.30433905</v>
       </c>
       <c r="AE7" t="n">
-        <v>1684161.284693272</v>
+        <v>1815631.626391895</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.53981821204336e-06</v>
+        <v>2.327117976354316e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.79583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1523427.295417354</v>
+        <v>1642350.292224044</v>
       </c>
     </row>
   </sheetData>
@@ -8907,28 +8907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1392.250123277122</v>
+        <v>1497.817553141935</v>
       </c>
       <c r="AB2" t="n">
-        <v>1904.938040408269</v>
+        <v>2049.380055255614</v>
       </c>
       <c r="AC2" t="n">
-        <v>1723.133427429034</v>
+        <v>1853.790099104991</v>
       </c>
       <c r="AD2" t="n">
-        <v>1392250.123277122</v>
+        <v>1497817.553141935</v>
       </c>
       <c r="AE2" t="n">
-        <v>1904938.040408269</v>
+        <v>2049380.055255615</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.375216327384373e-06</v>
+        <v>2.173512889553965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.49583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1723133.427429034</v>
+        <v>1853790.099104991</v>
       </c>
     </row>
     <row r="3">
@@ -9013,28 +9013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1033.60523513501</v>
+        <v>1116.752252652114</v>
       </c>
       <c r="AB3" t="n">
-        <v>1414.224282156448</v>
+        <v>1527.989699710874</v>
       </c>
       <c r="AC3" t="n">
-        <v>1279.252701543682</v>
+        <v>1382.160507317481</v>
       </c>
       <c r="AD3" t="n">
-        <v>1033605.23513501</v>
+        <v>1116752.252652114</v>
       </c>
       <c r="AE3" t="n">
-        <v>1414224.282156448</v>
+        <v>1527989.699710874</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582294558545902e-06</v>
+        <v>2.500797546966135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.02916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1279252.701543682</v>
+        <v>1382160.507317481</v>
       </c>
     </row>
     <row r="4">
@@ -9119,28 +9119,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1040.864029467591</v>
+        <v>1124.011046984695</v>
       </c>
       <c r="AB4" t="n">
-        <v>1424.15608479769</v>
+        <v>1537.921502352116</v>
       </c>
       <c r="AC4" t="n">
-        <v>1288.236626880217</v>
+        <v>1391.144432654015</v>
       </c>
       <c r="AD4" t="n">
-        <v>1040864.029467591</v>
+        <v>1124011.046984695</v>
       </c>
       <c r="AE4" t="n">
-        <v>1424156.08479769</v>
+        <v>1537921.502352116</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.583518838628783e-06</v>
+        <v>2.502732506933944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1288236.626880217</v>
+        <v>1391144.432654015</v>
       </c>
     </row>
   </sheetData>
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6803.546805967518</v>
+        <v>7015.316031423954</v>
       </c>
       <c r="AB2" t="n">
-        <v>9308.912891226753</v>
+        <v>9598.664888095125</v>
       </c>
       <c r="AC2" t="n">
-        <v>8420.48331002902</v>
+        <v>8682.581782985746</v>
       </c>
       <c r="AD2" t="n">
-        <v>6803546.805967518</v>
+        <v>7015316.031423954</v>
       </c>
       <c r="AE2" t="n">
-        <v>9308912.891226754</v>
+        <v>9598664.888095126</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.381713978122528e-07</v>
+        <v>9.303813308440435e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.82291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>8420483.310029021</v>
+        <v>8682581.782985747</v>
       </c>
     </row>
     <row r="3">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2799.892737551841</v>
+        <v>2926.834885137855</v>
       </c>
       <c r="AB3" t="n">
-        <v>3830.936766068446</v>
+        <v>4004.624612687941</v>
       </c>
       <c r="AC3" t="n">
-        <v>3465.317537868249</v>
+        <v>3622.428860178797</v>
       </c>
       <c r="AD3" t="n">
-        <v>2799892.737551841</v>
+        <v>2926834.885137855</v>
       </c>
       <c r="AE3" t="n">
-        <v>3830936.766068446</v>
+        <v>4004624.612687941</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.067706962498634e-06</v>
+        <v>1.556595341198881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.18125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3465317.537868249</v>
+        <v>3622428.860178797</v>
       </c>
     </row>
     <row r="4">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2216.558473499248</v>
+        <v>2326.552255780381</v>
       </c>
       <c r="AB4" t="n">
-        <v>3032.793091100189</v>
+        <v>3183.291436600439</v>
       </c>
       <c r="AC4" t="n">
-        <v>2743.34757503731</v>
+        <v>2879.482569668765</v>
       </c>
       <c r="AD4" t="n">
-        <v>2216558.473499248</v>
+        <v>2326552.255780381</v>
       </c>
       <c r="AE4" t="n">
-        <v>3032793.091100189</v>
+        <v>3183291.436600439</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.223099529249731e-06</v>
+        <v>1.783140033663601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>2743347.575037309</v>
+        <v>2879482.569668765</v>
       </c>
     </row>
     <row r="5">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1964.670302520939</v>
+        <v>2074.663995293521</v>
       </c>
       <c r="AB5" t="n">
-        <v>2688.148583045672</v>
+        <v>2838.646806076364</v>
       </c>
       <c r="AC5" t="n">
-        <v>2431.595455120025</v>
+        <v>2567.730338970251</v>
       </c>
       <c r="AD5" t="n">
-        <v>1964670.302520939</v>
+        <v>2074663.995293521</v>
       </c>
       <c r="AE5" t="n">
-        <v>2688148.583045672</v>
+        <v>2838646.806076364</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.305656504078033e-06</v>
+        <v>1.903498715319545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.8625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2431595.455120025</v>
+        <v>2567730.33897025</v>
       </c>
     </row>
     <row r="6">
@@ -9840,28 +9840,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1818.045444038485</v>
+        <v>1919.650295013198</v>
       </c>
       <c r="AB6" t="n">
-        <v>2487.529983037755</v>
+        <v>2626.550222631023</v>
       </c>
       <c r="AC6" t="n">
-        <v>2250.12361272689</v>
+        <v>2375.875955769508</v>
       </c>
       <c r="AD6" t="n">
-        <v>1818045.444038485</v>
+        <v>1919650.295013198</v>
       </c>
       <c r="AE6" t="n">
-        <v>2487529.983037755</v>
+        <v>2626550.222631023</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.357553732819737e-06</v>
+        <v>1.979158973534423e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.95208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2250123.61272689</v>
+        <v>2375875.955769508</v>
       </c>
     </row>
     <row r="7">
@@ -9946,28 +9946,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1728.470485648016</v>
+        <v>1821.601243478839</v>
       </c>
       <c r="AB7" t="n">
-        <v>2364.969573199653</v>
+        <v>2492.395184702847</v>
       </c>
       <c r="AC7" t="n">
-        <v>2139.26019638912</v>
+        <v>2254.524486373418</v>
       </c>
       <c r="AD7" t="n">
-        <v>1728470.485648016</v>
+        <v>1821601.243478839</v>
       </c>
       <c r="AE7" t="n">
-        <v>2364969.573199653</v>
+        <v>2492395.184702847</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389559516539405e-06</v>
+        <v>2.025819766785097e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.42291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2139260.19638912</v>
+        <v>2254524.486373418</v>
       </c>
     </row>
     <row r="8">
@@ -10052,28 +10052,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1650.656391303676</v>
+        <v>1743.787149134499</v>
       </c>
       <c r="AB8" t="n">
-        <v>2258.500896402168</v>
+        <v>2385.926507905362</v>
       </c>
       <c r="AC8" t="n">
-        <v>2042.952740675461</v>
+        <v>2158.21703065976</v>
       </c>
       <c r="AD8" t="n">
-        <v>1650656.391303676</v>
+        <v>1743787.149134499</v>
       </c>
       <c r="AE8" t="n">
-        <v>2258500.896402168</v>
+        <v>2385926.507905362</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.415283791304745e-06</v>
+        <v>2.063322834257601e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.01458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2042952.740675461</v>
+        <v>2158217.030659759</v>
       </c>
     </row>
     <row r="9">
@@ -10158,28 +10158,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1572.845518927915</v>
+        <v>1666.061528104759</v>
       </c>
       <c r="AB9" t="n">
-        <v>2152.036628044235</v>
+        <v>2279.578884200079</v>
       </c>
       <c r="AC9" t="n">
-        <v>1946.649272666071</v>
+        <v>2062.019074901081</v>
       </c>
       <c r="AD9" t="n">
-        <v>1572845.518927915</v>
+        <v>1666061.528104759</v>
       </c>
       <c r="AE9" t="n">
-        <v>2152036.628044236</v>
+        <v>2279578.884200079</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.43667083369686e-06</v>
+        <v>2.094502710121369e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.6875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1946649.272666071</v>
+        <v>2062019.074901081</v>
       </c>
     </row>
     <row r="10">
@@ -10264,28 +10264,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1525.621953231535</v>
+        <v>1618.837962408379</v>
       </c>
       <c r="AB10" t="n">
-        <v>2087.423262101765</v>
+        <v>2214.965518257609</v>
       </c>
       <c r="AC10" t="n">
-        <v>1888.202515683721</v>
+        <v>2003.572317918732</v>
       </c>
       <c r="AD10" t="n">
-        <v>1525621.953231535</v>
+        <v>1618837.962408379</v>
       </c>
       <c r="AE10" t="n">
-        <v>2087423.262101765</v>
+        <v>2214965.518257609</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.446541776339374e-06</v>
+        <v>2.108893422058493e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.53958333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1888202.515683721</v>
+        <v>2003572.317918732</v>
       </c>
     </row>
     <row r="11">
@@ -10370,28 +10370,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1484.957882154101</v>
+        <v>1578.003299130353</v>
       </c>
       <c r="AB11" t="n">
-        <v>2031.784886081417</v>
+        <v>2159.093730462413</v>
       </c>
       <c r="AC11" t="n">
-        <v>1837.874188181804</v>
+        <v>1953.032855134163</v>
       </c>
       <c r="AD11" t="n">
-        <v>1484957.882154101</v>
+        <v>1578003.299130353</v>
       </c>
       <c r="AE11" t="n">
-        <v>2031784.886081417</v>
+        <v>2159093.730462413</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.457459637140943e-06</v>
+        <v>2.124810421625311e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.37708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1837874.188181804</v>
+        <v>1953032.855134163</v>
       </c>
     </row>
     <row r="12">
@@ -10476,28 +10476,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1485.246305215467</v>
+        <v>1578.291722191719</v>
       </c>
       <c r="AB12" t="n">
-        <v>2032.179519238306</v>
+        <v>2159.488363619303</v>
       </c>
       <c r="AC12" t="n">
-        <v>1838.231158104069</v>
+        <v>1953.389825056429</v>
       </c>
       <c r="AD12" t="n">
-        <v>1485246.305215467</v>
+        <v>1578291.722191719</v>
       </c>
       <c r="AE12" t="n">
-        <v>2032179.519238306</v>
+        <v>2159488.363619302</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.458506555299997e-06</v>
+        <v>2.126336709255006e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.36458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1838231.15810407</v>
+        <v>1953389.825056429</v>
       </c>
     </row>
   </sheetData>
@@ -10773,28 +10773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1116.799896487476</v>
+        <v>1206.024329768553</v>
       </c>
       <c r="AB2" t="n">
-        <v>1528.054888108315</v>
+        <v>1650.13569402767</v>
       </c>
       <c r="AC2" t="n">
-        <v>1382.219474225762</v>
+        <v>1492.649059369661</v>
       </c>
       <c r="AD2" t="n">
-        <v>1116799.896487476</v>
+        <v>1206024.329768553</v>
       </c>
       <c r="AE2" t="n">
-        <v>1528054.888108315</v>
+        <v>1650135.69402767</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.491495056782265e-06</v>
+        <v>2.389725429690733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.00208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1382219.474225762</v>
+        <v>1492649.059369661</v>
       </c>
     </row>
     <row r="3">
@@ -10879,28 +10879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>987.2906546257603</v>
+        <v>1076.514998398286</v>
       </c>
       <c r="AB3" t="n">
-        <v>1350.854629848606</v>
+        <v>1472.935313298413</v>
       </c>
       <c r="AC3" t="n">
-        <v>1221.930959912235</v>
+        <v>1332.360434274908</v>
       </c>
       <c r="AD3" t="n">
-        <v>987290.6546257604</v>
+        <v>1076514.998398286</v>
       </c>
       <c r="AE3" t="n">
-        <v>1350854.629848606</v>
+        <v>1472935.313298413</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.577766581727549e-06</v>
+        <v>2.527952677633963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1221930.959912235</v>
+        <v>1332360.434274908</v>
       </c>
     </row>
   </sheetData>
@@ -11176,28 +11176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4220.587573584515</v>
+        <v>4385.081237823381</v>
       </c>
       <c r="AB2" t="n">
-        <v>5774.79411736113</v>
+        <v>5999.861605721057</v>
       </c>
       <c r="AC2" t="n">
-        <v>5223.655871774415</v>
+        <v>5427.243234929464</v>
       </c>
       <c r="AD2" t="n">
-        <v>4220587.573584515</v>
+        <v>4385081.237823381</v>
       </c>
       <c r="AE2" t="n">
-        <v>5774794.11736113</v>
+        <v>5999861.605721057</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.228510991115336e-07</v>
+        <v>1.22180485676627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.37083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5223655.871774415</v>
+        <v>5427243.234929464</v>
       </c>
     </row>
     <row r="3">
@@ -11282,28 +11282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2147.252832261319</v>
+        <v>2262.432470914371</v>
       </c>
       <c r="AB3" t="n">
-        <v>2937.96605520918</v>
+        <v>3095.559918181496</v>
       </c>
       <c r="AC3" t="n">
-        <v>2657.570698361272</v>
+        <v>2800.124024235769</v>
       </c>
       <c r="AD3" t="n">
-        <v>2147252.832261319</v>
+        <v>2262432.470914371</v>
       </c>
       <c r="AE3" t="n">
-        <v>2937966.05520918</v>
+        <v>3095559.918181496</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.210020267060838e-06</v>
+        <v>1.796690361934073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2657570.698361272</v>
+        <v>2800124.024235769</v>
       </c>
     </row>
     <row r="4">
@@ -11388,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1769.914902083615</v>
+        <v>1868.62820460127</v>
       </c>
       <c r="AB4" t="n">
-        <v>2421.675652165451</v>
+        <v>2556.739547593657</v>
       </c>
       <c r="AC4" t="n">
-        <v>2190.554326765904</v>
+        <v>2312.72791357781</v>
       </c>
       <c r="AD4" t="n">
-        <v>1769914.902083615</v>
+        <v>1868628.204601269</v>
       </c>
       <c r="AE4" t="n">
-        <v>2421675.652165451</v>
+        <v>2556739.547593657</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.346540158410031e-06</v>
+        <v>1.999400993876776e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.05625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2190554.326765904</v>
+        <v>2312727.91357781</v>
       </c>
     </row>
     <row r="5">
@@ -11494,28 +11494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1584.092261213396</v>
+        <v>1682.8054742225</v>
       </c>
       <c r="AB5" t="n">
-        <v>2167.424917010482</v>
+        <v>2302.488689969141</v>
       </c>
       <c r="AC5" t="n">
-        <v>1960.568924930978</v>
+        <v>2082.742400961657</v>
       </c>
       <c r="AD5" t="n">
-        <v>1584092.261213396</v>
+        <v>1682805.4742225</v>
       </c>
       <c r="AE5" t="n">
-        <v>2167424.917010482</v>
+        <v>2302488.689969141</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.417443427721228e-06</v>
+        <v>2.104681230967747e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.85416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1960568.924930978</v>
+        <v>2082742.400961658</v>
       </c>
     </row>
     <row r="6">
@@ -11600,28 +11600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1471.622651899591</v>
+        <v>1562.102741595273</v>
       </c>
       <c r="AB6" t="n">
-        <v>2013.539035738359</v>
+        <v>2137.337886159827</v>
       </c>
       <c r="AC6" t="n">
-        <v>1821.369696187275</v>
+        <v>1933.353358077296</v>
       </c>
       <c r="AD6" t="n">
-        <v>1471622.651899591</v>
+        <v>1562102.741595273</v>
       </c>
       <c r="AE6" t="n">
-        <v>2013539.035738359</v>
+        <v>2137337.886159827</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.461757971040727e-06</v>
+        <v>2.170481379149604e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.16041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1821369.696187275</v>
+        <v>1933353.358077297</v>
       </c>
     </row>
     <row r="7">
@@ -11706,28 +11706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1372.051146836994</v>
+        <v>1462.616487878696</v>
       </c>
       <c r="AB7" t="n">
-        <v>1877.300909726937</v>
+        <v>2001.216404801055</v>
       </c>
       <c r="AC7" t="n">
-        <v>1698.133945710973</v>
+        <v>1810.223119851707</v>
       </c>
       <c r="AD7" t="n">
-        <v>1372051.146836994</v>
+        <v>1462616.487878697</v>
       </c>
       <c r="AE7" t="n">
-        <v>1877300.909726937</v>
+        <v>2001216.404801055</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.493166875428582e-06</v>
+        <v>2.217118677159201e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.69375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1698133.945710973</v>
+        <v>1810223.119851707</v>
       </c>
     </row>
     <row r="8">
@@ -11812,28 +11812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1331.175164571277</v>
+        <v>1421.74050561298</v>
       </c>
       <c r="AB8" t="n">
-        <v>1821.372587469918</v>
+        <v>1945.288082544036</v>
       </c>
       <c r="AC8" t="n">
-        <v>1647.54334403427</v>
+        <v>1759.632518175003</v>
       </c>
       <c r="AD8" t="n">
-        <v>1331175.164571277</v>
+        <v>1421740.50561298</v>
       </c>
       <c r="AE8" t="n">
-        <v>1821372.587469918</v>
+        <v>1945288.082544036</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.506072514360226e-06</v>
+        <v>2.236281527331461e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.50833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1647543.34403427</v>
+        <v>1759632.518175004</v>
       </c>
     </row>
     <row r="9">
@@ -11918,28 +11918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1336.718167319465</v>
+        <v>1427.283508361166</v>
       </c>
       <c r="AB9" t="n">
-        <v>1828.95676837001</v>
+        <v>1952.872263444128</v>
       </c>
       <c r="AC9" t="n">
-        <v>1654.403701353722</v>
+        <v>1766.492875494456</v>
       </c>
       <c r="AD9" t="n">
-        <v>1336718.167319465</v>
+        <v>1427283.508361166</v>
       </c>
       <c r="AE9" t="n">
-        <v>1828956.76837001</v>
+        <v>1952872.263444128</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.506072514360226e-06</v>
+        <v>2.236281527331461e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1654403.701353722</v>
+        <v>1766492.875494456</v>
       </c>
     </row>
   </sheetData>
@@ -12215,28 +12215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5344.932667737538</v>
+        <v>5537.007626826269</v>
       </c>
       <c r="AB2" t="n">
-        <v>7313.172677786164</v>
+        <v>7575.978110560529</v>
       </c>
       <c r="AC2" t="n">
-        <v>6615.213741520295</v>
+        <v>6852.937392640405</v>
       </c>
       <c r="AD2" t="n">
-        <v>5344932.667737538</v>
+        <v>5537007.62682627</v>
       </c>
       <c r="AE2" t="n">
-        <v>7313172.677786164</v>
+        <v>7575978.110560529</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.263993410363362e-07</v>
+        <v>1.068128447880624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.69166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>6615213.741520295</v>
+        <v>6852937.392640405</v>
       </c>
     </row>
     <row r="3">
@@ -12321,28 +12321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2459.732717125174</v>
+        <v>2584.939627240731</v>
       </c>
       <c r="AB3" t="n">
-        <v>3365.514819319677</v>
+        <v>3536.828437478822</v>
       </c>
       <c r="AC3" t="n">
-        <v>3044.314808493396</v>
+        <v>3199.278495375598</v>
       </c>
       <c r="AD3" t="n">
-        <v>2459732.717125174</v>
+        <v>2584939.627240731</v>
       </c>
       <c r="AE3" t="n">
-        <v>3365514.819319677</v>
+        <v>3536828.437478822</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135608365789608e-06</v>
+        <v>1.669846780726127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.94791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3044314.808493396</v>
+        <v>3199278.495375598</v>
       </c>
     </row>
     <row r="4">
@@ -12427,28 +12427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1984.845885165809</v>
+        <v>2093.421123892644</v>
       </c>
       <c r="AB4" t="n">
-        <v>2715.753705304269</v>
+        <v>2864.311136931796</v>
       </c>
       <c r="AC4" t="n">
-        <v>2456.565983254294</v>
+        <v>2590.945302108955</v>
       </c>
       <c r="AD4" t="n">
-        <v>1984845.885165809</v>
+        <v>2093421.123892644</v>
       </c>
       <c r="AE4" t="n">
-        <v>2715753.705304269</v>
+        <v>2864311.136931796</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.282777359799906e-06</v>
+        <v>1.886250321131472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.74166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2456565.983254294</v>
+        <v>2590945.302108955</v>
       </c>
     </row>
     <row r="5">
@@ -12533,28 +12533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1779.458820508379</v>
+        <v>1879.590301767547</v>
       </c>
       <c r="AB5" t="n">
-        <v>2434.734062402178</v>
+        <v>2571.738372550154</v>
       </c>
       <c r="AC5" t="n">
-        <v>2202.366460657232</v>
+        <v>2326.295271731442</v>
       </c>
       <c r="AD5" t="n">
-        <v>1779458.820508379</v>
+        <v>1879590.301767547</v>
       </c>
       <c r="AE5" t="n">
-        <v>2434734.062402178</v>
+        <v>2571738.372550154</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.359408833906717e-06</v>
+        <v>1.998932495897402e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.34791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2202366.460657232</v>
+        <v>2326295.271731442</v>
       </c>
     </row>
     <row r="6">
@@ -12639,28 +12639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1648.696048012887</v>
+        <v>1748.912780618075</v>
       </c>
       <c r="AB6" t="n">
-        <v>2255.818668227467</v>
+        <v>2392.939623028093</v>
       </c>
       <c r="AC6" t="n">
-        <v>2040.526500593223</v>
+        <v>2164.560823918145</v>
       </c>
       <c r="AD6" t="n">
-        <v>1648696.048012887</v>
+        <v>1748912.780618075</v>
       </c>
       <c r="AE6" t="n">
-        <v>2255818.668227467</v>
+        <v>2392939.623028093</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.406636978982486e-06</v>
+        <v>2.068378766627895e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.56458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2040526.500593223</v>
+        <v>2164560.823918145</v>
       </c>
     </row>
     <row r="7">
@@ -12745,28 +12745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1560.600459205163</v>
+        <v>1652.458775197256</v>
       </c>
       <c r="AB7" t="n">
-        <v>2135.282397117657</v>
+        <v>2260.966997560929</v>
       </c>
       <c r="AC7" t="n">
-        <v>1931.494042024414</v>
+        <v>2045.183480600825</v>
       </c>
       <c r="AD7" t="n">
-        <v>1560600.459205163</v>
+        <v>1652458.775197256</v>
       </c>
       <c r="AE7" t="n">
-        <v>2135282.397117657</v>
+        <v>2260966.997560929</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.438325540839776e-06</v>
+        <v>2.114974974085775e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.06666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1931494.042024414</v>
+        <v>2045183.480600825</v>
       </c>
     </row>
     <row r="8">
@@ -12851,28 +12851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1472.378280933616</v>
+        <v>1564.321848271729</v>
       </c>
       <c r="AB8" t="n">
-        <v>2014.572920718711</v>
+        <v>2140.374165814633</v>
       </c>
       <c r="AC8" t="n">
-        <v>1822.304908636169</v>
+        <v>1936.099859463292</v>
       </c>
       <c r="AD8" t="n">
-        <v>1472378.280933616</v>
+        <v>1564321.848271729</v>
       </c>
       <c r="AE8" t="n">
-        <v>2014572.920718711</v>
+        <v>2140374.165814633</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.464224846203907e-06</v>
+        <v>2.153058412873465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.675</v>
       </c>
       <c r="AH8" t="n">
-        <v>1822304.908636169</v>
+        <v>1936099.859463292</v>
       </c>
     </row>
     <row r="9">
@@ -12957,28 +12957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1426.75477931927</v>
+        <v>1518.698346657384</v>
       </c>
       <c r="AB9" t="n">
-        <v>1952.148833043126</v>
+        <v>2077.950078139047</v>
       </c>
       <c r="AC9" t="n">
-        <v>1765.838488275584</v>
+        <v>1879.633439102707</v>
       </c>
       <c r="AD9" t="n">
-        <v>1426754.77931927</v>
+        <v>1518698.346657384</v>
       </c>
       <c r="AE9" t="n">
-        <v>1952148.833043126</v>
+        <v>2077950.078139047</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.473518126363977e-06</v>
+        <v>2.166723646791401e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.53958333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1765838.488275585</v>
+        <v>1879633.439102707</v>
       </c>
     </row>
     <row r="10">
@@ -13063,28 +13063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1411.148444039991</v>
+        <v>1502.921419177513</v>
       </c>
       <c r="AB10" t="n">
-        <v>1930.795556611096</v>
+        <v>2056.36338993217</v>
       </c>
       <c r="AC10" t="n">
-        <v>1746.523138576716</v>
+        <v>1860.106954121188</v>
       </c>
       <c r="AD10" t="n">
-        <v>1411148.444039991</v>
+        <v>1502921.419177513</v>
       </c>
       <c r="AE10" t="n">
-        <v>1930795.556611096</v>
+        <v>2056363.389932171</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.480373824842718e-06</v>
+        <v>2.17680455705873e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.43958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1746523.138576716</v>
+        <v>1860106.954121188</v>
       </c>
     </row>
     <row r="11">
@@ -13169,28 +13169,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1417.69853991782</v>
+        <v>1509.471515055341</v>
       </c>
       <c r="AB11" t="n">
-        <v>1939.757686760977</v>
+        <v>2065.325520082051</v>
       </c>
       <c r="AC11" t="n">
-        <v>1754.629935603521</v>
+        <v>1868.213751147993</v>
       </c>
       <c r="AD11" t="n">
-        <v>1417698.53991782</v>
+        <v>1509471.515055341</v>
       </c>
       <c r="AE11" t="n">
-        <v>1939757.686760977</v>
+        <v>2065325.520082051</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.480526173697801e-06</v>
+        <v>2.177028577286893e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.4375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1754629.935603521</v>
+        <v>1868213.751147992</v>
       </c>
     </row>
   </sheetData>
@@ -13466,28 +13466,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8761.476735034061</v>
+        <v>9001.602008666687</v>
       </c>
       <c r="AB2" t="n">
-        <v>11987.83899794798</v>
+        <v>12316.38899091158</v>
       </c>
       <c r="AC2" t="n">
-        <v>10843.73646902108</v>
+        <v>11140.93011177903</v>
       </c>
       <c r="AD2" t="n">
-        <v>8761476.735034062</v>
+        <v>9001602.008666687</v>
       </c>
       <c r="AE2" t="n">
-        <v>11987838.99794798</v>
+        <v>12316388.99091158</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.565866453443024e-07</v>
+        <v>8.052542560612862e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.03541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10843736.46902108</v>
+        <v>11140930.11177903</v>
       </c>
     </row>
     <row r="3">
@@ -13572,28 +13572,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3156.112120085571</v>
+        <v>3293.168110363674</v>
       </c>
       <c r="AB3" t="n">
-        <v>4318.331840541149</v>
+        <v>4505.857892923213</v>
       </c>
       <c r="AC3" t="n">
-        <v>3906.196310496543</v>
+        <v>4075.825139633722</v>
       </c>
       <c r="AD3" t="n">
-        <v>3156112.120085571</v>
+        <v>3293168.110363674</v>
       </c>
       <c r="AE3" t="n">
-        <v>4318331.840541149</v>
+        <v>4505857.892923213</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.005091075542485e-06</v>
+        <v>1.454138134789667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.48125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3906196.310496543</v>
+        <v>4075825.139633722</v>
       </c>
     </row>
     <row r="4">
@@ -13678,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2452.751351205913</v>
+        <v>2564.232037568173</v>
       </c>
       <c r="AB4" t="n">
-        <v>3355.962606472819</v>
+        <v>3508.495399734445</v>
       </c>
       <c r="AC4" t="n">
-        <v>3035.674245434026</v>
+        <v>3173.649522987877</v>
       </c>
       <c r="AD4" t="n">
-        <v>2452751.351205913</v>
+        <v>2564232.037568173</v>
       </c>
       <c r="AE4" t="n">
-        <v>3355962.606472819</v>
+        <v>3508495.399734444</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.168464328640905e-06</v>
+        <v>1.690502065696956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>3035674.245434027</v>
+        <v>3173649.522987877</v>
       </c>
     </row>
     <row r="5">
@@ -13784,28 +13784,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2163.509878720335</v>
+        <v>2266.408569874267</v>
       </c>
       <c r="AB5" t="n">
-        <v>2960.209663384678</v>
+        <v>3101.000192191532</v>
       </c>
       <c r="AC5" t="n">
-        <v>2677.691407791599</v>
+        <v>2805.04508612976</v>
       </c>
       <c r="AD5" t="n">
-        <v>2163509.878720335</v>
+        <v>2266408.569874267</v>
       </c>
       <c r="AE5" t="n">
-        <v>2960209.663384678</v>
+        <v>3101000.192191532</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.255518303289208e-06</v>
+        <v>1.816449362814072e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>2677691.4077916</v>
+        <v>2805045.086129759</v>
       </c>
     </row>
     <row r="6">
@@ -13890,28 +13890,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2002.543471293587</v>
+        <v>2105.356821592945</v>
       </c>
       <c r="AB6" t="n">
-        <v>2739.968323406692</v>
+        <v>2880.642085091168</v>
       </c>
       <c r="AC6" t="n">
-        <v>2478.469592190451</v>
+        <v>2605.717647496625</v>
       </c>
       <c r="AD6" t="n">
-        <v>2002543.471293587</v>
+        <v>2105356.821592945</v>
       </c>
       <c r="AE6" t="n">
-        <v>2739968.323406692</v>
+        <v>2880642.085091168</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.308750632381583e-06</v>
+        <v>1.893464433010686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.40833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2478469.592190451</v>
+        <v>2605717.647496625</v>
       </c>
     </row>
     <row r="7">
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1887.890111703461</v>
+        <v>1990.78871334884</v>
       </c>
       <c r="AB7" t="n">
-        <v>2583.094538666243</v>
+        <v>2723.884945003369</v>
       </c>
       <c r="AC7" t="n">
-        <v>2336.567621291891</v>
+        <v>2463.921188848778</v>
       </c>
       <c r="AD7" t="n">
-        <v>1887890.111703461</v>
+        <v>1990788.71334884</v>
       </c>
       <c r="AE7" t="n">
-        <v>2583094.538666243</v>
+        <v>2723884.945003368</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.346101493125956e-06</v>
+        <v>1.947502631435935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.75833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2336567.621291891</v>
+        <v>2463921.188848778</v>
       </c>
     </row>
     <row r="8">
@@ -14102,28 +14102,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1809.584989400152</v>
+        <v>1903.901685345752</v>
       </c>
       <c r="AB8" t="n">
-        <v>2475.954015752671</v>
+        <v>2605.002280104401</v>
       </c>
       <c r="AC8" t="n">
-        <v>2239.652439512523</v>
+        <v>2356.3845186349</v>
       </c>
       <c r="AD8" t="n">
-        <v>1809584.989400152</v>
+        <v>1903901.685345752</v>
       </c>
       <c r="AE8" t="n">
-        <v>2475954.015752671</v>
+        <v>2605002.280104401</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372276505773588e-06</v>
+        <v>1.985371920096149e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.325</v>
       </c>
       <c r="AH8" t="n">
-        <v>2239652.439512522</v>
+        <v>2356384.5186349</v>
       </c>
     </row>
     <row r="9">
@@ -14208,28 +14208,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1736.372634637242</v>
+        <v>1839.185895428049</v>
       </c>
       <c r="AB9" t="n">
-        <v>2375.781642064921</v>
+        <v>2516.455281279848</v>
       </c>
       <c r="AC9" t="n">
-        <v>2149.040376576721</v>
+        <v>2276.288321101668</v>
       </c>
       <c r="AD9" t="n">
-        <v>1736372.634637242</v>
+        <v>1839185.895428049</v>
       </c>
       <c r="AE9" t="n">
-        <v>2375781.642064922</v>
+        <v>2516455.281279848</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.393451796904256e-06</v>
+        <v>2.016007749124636e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.98541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2149040.376576721</v>
+        <v>2276288.321101668</v>
       </c>
     </row>
     <row r="10">
@@ -14314,28 +14314,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1668.065576935278</v>
+        <v>1762.4675242269</v>
       </c>
       <c r="AB10" t="n">
-        <v>2282.320912222391</v>
+        <v>2411.48582122677</v>
       </c>
       <c r="AC10" t="n">
-        <v>2064.499407617404</v>
+        <v>2181.336998990493</v>
       </c>
       <c r="AD10" t="n">
-        <v>1668065.576935278</v>
+        <v>1762467.524226899</v>
       </c>
       <c r="AE10" t="n">
-        <v>2282320.912222391</v>
+        <v>2411485.82122677</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.414774138667776e-06</v>
+        <v>2.046856326965822e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.65416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2064499.407617404</v>
+        <v>2181336.998990493</v>
       </c>
     </row>
     <row r="11">
@@ -14420,28 +14420,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1635.637606073769</v>
+        <v>1730.03955336539</v>
       </c>
       <c r="AB11" t="n">
-        <v>2237.951531868567</v>
+        <v>2367.116440872946</v>
       </c>
       <c r="AC11" t="n">
-        <v>2024.364578651733</v>
+        <v>2141.202170024822</v>
       </c>
       <c r="AD11" t="n">
-        <v>1635637.606073769</v>
+        <v>1730039.55336539</v>
       </c>
       <c r="AE11" t="n">
-        <v>2237951.531868567</v>
+        <v>2367116.440872946</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.41977386018474e-06</v>
+        <v>2.054089786597548e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.57708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2024364.578651733</v>
+        <v>2141202.170024822</v>
       </c>
     </row>
     <row r="12">
@@ -14526,28 +14526,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1582.507561195131</v>
+        <v>1676.73891628616</v>
       </c>
       <c r="AB12" t="n">
-        <v>2165.256660533462</v>
+        <v>2294.188157762994</v>
       </c>
       <c r="AC12" t="n">
-        <v>1958.607603808957</v>
+        <v>2075.234059899396</v>
       </c>
       <c r="AD12" t="n">
-        <v>1582507.561195131</v>
+        <v>1676738.91628616</v>
       </c>
       <c r="AE12" t="n">
-        <v>2165256.660533462</v>
+        <v>2294188.157762994</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.430949708281481e-06</v>
+        <v>2.070258696362583e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.40833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1958607.603808957</v>
+        <v>2075234.059899396</v>
       </c>
     </row>
     <row r="13">
@@ -14632,28 +14632,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1554.717520160853</v>
+        <v>1648.948875251882</v>
       </c>
       <c r="AB13" t="n">
-        <v>2127.233100380279</v>
+        <v>2256.164597609812</v>
       </c>
       <c r="AC13" t="n">
-        <v>1924.212958870393</v>
+        <v>2040.839414960831</v>
       </c>
       <c r="AD13" t="n">
-        <v>1554717.520160853</v>
+        <v>1648948.875251882</v>
       </c>
       <c r="AE13" t="n">
-        <v>2127233.100380279</v>
+        <v>2256164.597609811</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.438155189291223e-06</v>
+        <v>2.080683388184777e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1924212.958870393</v>
+        <v>2040839.414960831</v>
       </c>
     </row>
     <row r="14">
@@ -14738,28 +14738,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1558.277793190494</v>
+        <v>1652.509148281523</v>
       </c>
       <c r="AB14" t="n">
-        <v>2132.104423007595</v>
+        <v>2261.035920237128</v>
       </c>
       <c r="AC14" t="n">
-        <v>1928.619369303102</v>
+        <v>2045.24582539354</v>
       </c>
       <c r="AD14" t="n">
-        <v>1558277.793190494</v>
+        <v>1652509.148281523</v>
       </c>
       <c r="AE14" t="n">
-        <v>2132104.423007595</v>
+        <v>2261035.920237128</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.437566986759815e-06</v>
+        <v>2.079832392933985e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.31041666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1928619.369303102</v>
+        <v>2045245.82539354</v>
       </c>
     </row>
     <row r="15">
@@ -14844,28 +14844,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1564.668495090317</v>
+        <v>1658.899850181346</v>
       </c>
       <c r="AB15" t="n">
-        <v>2140.848463284802</v>
+        <v>2269.779960514334</v>
       </c>
       <c r="AC15" t="n">
-        <v>1936.528890648589</v>
+        <v>2053.155346739028</v>
       </c>
       <c r="AD15" t="n">
-        <v>1564668.495090317</v>
+        <v>1658899.850181346</v>
       </c>
       <c r="AE15" t="n">
-        <v>2140848.463284802</v>
+        <v>2269779.960514334</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.437419936126963e-06</v>
+        <v>2.079619644121288e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.3125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1936528.890648589</v>
+        <v>2053155.346739028</v>
       </c>
     </row>
   </sheetData>
@@ -15141,28 +15141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3319.230998673463</v>
+        <v>3464.955564871044</v>
       </c>
       <c r="AB2" t="n">
-        <v>4541.518286522151</v>
+        <v>4740.905066907823</v>
       </c>
       <c r="AC2" t="n">
-        <v>4108.082155317254</v>
+        <v>4288.439741224013</v>
       </c>
       <c r="AD2" t="n">
-        <v>3319230.998673463</v>
+        <v>3464955.564871044</v>
       </c>
       <c r="AE2" t="n">
-        <v>4541518.286522151</v>
+        <v>4740905.066907823</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.30018456236536e-07</v>
+        <v>1.396594406498814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.63541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4108082.155317253</v>
+        <v>4288439.741224013</v>
       </c>
     </row>
     <row r="3">
@@ -15247,28 +15247,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1853.75925566446</v>
+        <v>1959.004775696047</v>
       </c>
       <c r="AB3" t="n">
-        <v>2536.395195686585</v>
+        <v>2680.396759298451</v>
       </c>
       <c r="AC3" t="n">
-        <v>2294.325198063272</v>
+        <v>2424.583454551485</v>
       </c>
       <c r="AD3" t="n">
-        <v>1853759.25566446</v>
+        <v>1959004.775696047</v>
       </c>
       <c r="AE3" t="n">
-        <v>2536395.195686585</v>
+        <v>2680396.759298451</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.290667077565347e-06</v>
+        <v>1.938174892221156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.67916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2294325.198063272</v>
+        <v>2424583.454551485</v>
       </c>
     </row>
     <row r="4">
@@ -15353,28 +15353,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1544.522778990204</v>
+        <v>1641.501897587998</v>
       </c>
       <c r="AB4" t="n">
-        <v>2113.284205750358</v>
+        <v>2245.975314232618</v>
       </c>
       <c r="AC4" t="n">
-        <v>1911.595327166554</v>
+        <v>2031.622582488408</v>
       </c>
       <c r="AD4" t="n">
-        <v>1544522.778990204</v>
+        <v>1641501.897587998</v>
       </c>
       <c r="AE4" t="n">
-        <v>2113284.205750358</v>
+        <v>2245975.314232618</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.417936110235417e-06</v>
+        <v>2.129292840424894e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1911595.327166554</v>
+        <v>2031622.582488408</v>
       </c>
     </row>
     <row r="5">
@@ -15459,28 +15459,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1386.637206840011</v>
+        <v>1475.605857059178</v>
       </c>
       <c r="AB5" t="n">
-        <v>1897.258200514616</v>
+        <v>2018.989032764315</v>
       </c>
       <c r="AC5" t="n">
-        <v>1716.186540676109</v>
+        <v>1826.299553146192</v>
       </c>
       <c r="AD5" t="n">
-        <v>1386637.206840011</v>
+        <v>1475605.857059178</v>
       </c>
       <c r="AE5" t="n">
-        <v>1897258.200514616</v>
+        <v>2018989.032764315</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.483320575769665e-06</v>
+        <v>2.227479686314564e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1716186.540676109</v>
+        <v>1826299.553146193</v>
       </c>
     </row>
     <row r="6">
@@ -15565,28 +15565,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1274.525275302147</v>
+        <v>1363.579176867336</v>
       </c>
       <c r="AB6" t="n">
-        <v>1743.861709755165</v>
+        <v>1865.709186657513</v>
       </c>
       <c r="AC6" t="n">
-        <v>1577.429995701413</v>
+        <v>1687.648520422209</v>
       </c>
       <c r="AD6" t="n">
-        <v>1274525.275302147</v>
+        <v>1363579.176867336</v>
       </c>
       <c r="AE6" t="n">
-        <v>1743861.709755165</v>
+        <v>1865709.186657513</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.523410321060737e-06</v>
+        <v>2.287681839998742e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.75625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1577429.995701413</v>
+        <v>1687648.520422209</v>
       </c>
     </row>
     <row r="7">
@@ -15671,28 +15671,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1266.174132911837</v>
+        <v>1355.228034477025</v>
       </c>
       <c r="AB7" t="n">
-        <v>1732.435308310342</v>
+        <v>1854.28278521269</v>
       </c>
       <c r="AC7" t="n">
-        <v>1567.094113973429</v>
+        <v>1677.312638694225</v>
       </c>
       <c r="AD7" t="n">
-        <v>1266174.132911836</v>
+        <v>1355228.034477025</v>
       </c>
       <c r="AE7" t="n">
-        <v>1732435.308310342</v>
+        <v>1854282.78521269</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526751133168326e-06</v>
+        <v>2.29269868613909e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.70625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1567094.113973429</v>
+        <v>1677312.638694225</v>
       </c>
     </row>
     <row r="8">
@@ -15777,28 +15777,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1273.353545368686</v>
+        <v>1362.407446933874</v>
       </c>
       <c r="AB8" t="n">
-        <v>1742.258497167127</v>
+        <v>1864.105974069475</v>
       </c>
       <c r="AC8" t="n">
-        <v>1575.979791472654</v>
+        <v>1686.19831619345</v>
       </c>
       <c r="AD8" t="n">
-        <v>1273353.545368686</v>
+        <v>1362407.446933874</v>
       </c>
       <c r="AE8" t="n">
-        <v>1742258.497167127</v>
+        <v>1864105.974069475</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.526751133168326e-06</v>
+        <v>2.29269868613909e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.70833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1575979.791472654</v>
+        <v>1686198.31619345</v>
       </c>
     </row>
   </sheetData>
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2256.141507765336</v>
+        <v>2381.787238784052</v>
       </c>
       <c r="AB2" t="n">
-        <v>3086.95234486328</v>
+        <v>3258.866377141537</v>
       </c>
       <c r="AC2" t="n">
-        <v>2792.337945634239</v>
+        <v>2947.844743954712</v>
       </c>
       <c r="AD2" t="n">
-        <v>2256141.507765336</v>
+        <v>2381787.238784052</v>
       </c>
       <c r="AE2" t="n">
-        <v>3086952.34486328</v>
+        <v>3258866.377141537</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.119903186218623e-06</v>
+        <v>1.7176478709251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.82916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2792337.945634238</v>
+        <v>2947844.743954712</v>
       </c>
     </row>
     <row r="3">
@@ -16180,28 +16180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1423.967124781154</v>
+        <v>1518.180177340098</v>
       </c>
       <c r="AB3" t="n">
-        <v>1948.334641121437</v>
+        <v>2077.241096019121</v>
       </c>
       <c r="AC3" t="n">
-        <v>1762.388317477649</v>
+        <v>1878.992121241244</v>
       </c>
       <c r="AD3" t="n">
-        <v>1423967.124781154</v>
+        <v>1518180.177340098</v>
       </c>
       <c r="AE3" t="n">
-        <v>1948334.641121437</v>
+        <v>2077241.096019121</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.434596312976416e-06</v>
+        <v>2.20030743098529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.06666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1762388.31747765</v>
+        <v>1878992.121241244</v>
       </c>
     </row>
     <row r="4">
@@ -16286,28 +16286,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1190.53644566008</v>
+        <v>1276.891306226944</v>
       </c>
       <c r="AB4" t="n">
-        <v>1628.944487713234</v>
+        <v>1747.09901764839</v>
       </c>
       <c r="AC4" t="n">
-        <v>1473.48031204383</v>
+        <v>1580.358339472899</v>
       </c>
       <c r="AD4" t="n">
-        <v>1190536.44566008</v>
+        <v>1276891.306226944</v>
       </c>
       <c r="AE4" t="n">
-        <v>1628944.487713234</v>
+        <v>1747099.01764839</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.545294053194534e-06</v>
+        <v>2.370089730153382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.34166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1473480.31204383</v>
+        <v>1580358.339472899</v>
       </c>
     </row>
     <row r="5">
@@ -16392,28 +16392,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1156.813795851776</v>
+        <v>1243.16865641864</v>
       </c>
       <c r="AB5" t="n">
-        <v>1582.803670507202</v>
+        <v>1700.958200442358</v>
       </c>
       <c r="AC5" t="n">
-        <v>1431.743109672897</v>
+        <v>1538.621137101966</v>
       </c>
       <c r="AD5" t="n">
-        <v>1156813.795851776</v>
+        <v>1243168.65641864</v>
       </c>
       <c r="AE5" t="n">
-        <v>1582803.670507202</v>
+        <v>1700958.200442357</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.561368425651356e-06</v>
+        <v>2.394743746649348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.11041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1431743.109672897</v>
+        <v>1538621.137101966</v>
       </c>
     </row>
     <row r="6">
@@ -16498,28 +16498,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1162.416990028672</v>
+        <v>1248.771850595536</v>
       </c>
       <c r="AB6" t="n">
-        <v>1590.470207975512</v>
+        <v>1708.624737910668</v>
       </c>
       <c r="AC6" t="n">
-        <v>1438.677963565285</v>
+        <v>1545.555990994354</v>
       </c>
       <c r="AD6" t="n">
-        <v>1162416.990028672</v>
+        <v>1248771.850595536</v>
       </c>
       <c r="AE6" t="n">
-        <v>1590470.207975512</v>
+        <v>1708624.737910668</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.562859862271061e-06</v>
+        <v>2.397031232715984e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.09166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1438677.963565285</v>
+        <v>1545555.990994354</v>
       </c>
     </row>
   </sheetData>
@@ -30272,28 +30272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1665.985770338993</v>
+        <v>1780.838989981221</v>
       </c>
       <c r="AB2" t="n">
-        <v>2279.475229082762</v>
+        <v>2436.622471163701</v>
       </c>
       <c r="AC2" t="n">
-        <v>2061.92531248268</v>
+        <v>2204.074642336953</v>
       </c>
       <c r="AD2" t="n">
-        <v>1665985.770338993</v>
+        <v>1780838.989981221</v>
       </c>
       <c r="AE2" t="n">
-        <v>2279475.229082762</v>
+        <v>2436622.4711637</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.278657016274342e-06</v>
+        <v>1.997876365951599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.93125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2061925.31248268</v>
+        <v>2204074.642336953</v>
       </c>
     </row>
     <row r="3">
@@ -30378,28 +30378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1109.453676437316</v>
+        <v>1201.387456663842</v>
       </c>
       <c r="AB3" t="n">
-        <v>1518.003465743331</v>
+        <v>1643.7913196814</v>
       </c>
       <c r="AC3" t="n">
-        <v>1373.127345504032</v>
+        <v>1486.910183206614</v>
       </c>
       <c r="AD3" t="n">
-        <v>1109453.676437316</v>
+        <v>1201387.456663842</v>
       </c>
       <c r="AE3" t="n">
-        <v>1518003.465743331</v>
+        <v>1643791.3196814</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.5561936444213e-06</v>
+        <v>2.431521872919777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>1373127.345504032</v>
+        <v>1486910.183206614</v>
       </c>
     </row>
     <row r="4">
@@ -30484,28 +30484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1074.550544689869</v>
+        <v>1166.484324916394</v>
       </c>
       <c r="AB4" t="n">
-        <v>1470.247461068976</v>
+        <v>1596.035315007045</v>
       </c>
       <c r="AC4" t="n">
-        <v>1329.929106889824</v>
+        <v>1443.711944592405</v>
       </c>
       <c r="AD4" t="n">
-        <v>1074550.544689869</v>
+        <v>1166484.324916394</v>
       </c>
       <c r="AE4" t="n">
-        <v>1470247.461068976</v>
+        <v>1596035.315007045</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.579335982160546e-06</v>
+        <v>2.467681319146277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.6125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1329929.106889824</v>
+        <v>1443711.944592405</v>
       </c>
     </row>
   </sheetData>
@@ -30781,28 +30781,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>937.1800005809858</v>
+        <v>1031.887489795555</v>
       </c>
       <c r="AB2" t="n">
-        <v>1282.291022258514</v>
+        <v>1411.87398720143</v>
       </c>
       <c r="AC2" t="n">
-        <v>1159.910966800914</v>
+        <v>1277.126715440511</v>
       </c>
       <c r="AD2" t="n">
-        <v>937180.0005809858</v>
+        <v>1031887.489795555</v>
       </c>
       <c r="AE2" t="n">
-        <v>1282291.022258515</v>
+        <v>1411873.98720143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549020416322193e-06</v>
+        <v>2.524401602158127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.74583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1159910.966800914</v>
+        <v>1277126.715440511</v>
       </c>
     </row>
     <row r="3">
@@ -30887,28 +30887,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>947.7179638222601</v>
+        <v>1042.425453036829</v>
       </c>
       <c r="AB3" t="n">
-        <v>1296.709528467353</v>
+        <v>1426.292493410268</v>
       </c>
       <c r="AC3" t="n">
-        <v>1172.953391013682</v>
+        <v>1290.169139653279</v>
       </c>
       <c r="AD3" t="n">
-        <v>947717.9638222601</v>
+        <v>1042425.453036829</v>
       </c>
       <c r="AE3" t="n">
-        <v>1296709.528467353</v>
+        <v>1426292.493410268</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.549940371433443e-06</v>
+        <v>2.52590083104645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.73125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1172953.391013682</v>
+        <v>1290169.139653279</v>
       </c>
     </row>
   </sheetData>
@@ -31184,28 +31184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4750.586975402194</v>
+        <v>4924.657491625248</v>
       </c>
       <c r="AB2" t="n">
-        <v>6499.962680851515</v>
+        <v>6738.133640597099</v>
       </c>
       <c r="AC2" t="n">
-        <v>5879.61536534572</v>
+        <v>6095.055622968217</v>
       </c>
       <c r="AD2" t="n">
-        <v>4750586.975402194</v>
+        <v>4924657.491625248</v>
       </c>
       <c r="AE2" t="n">
-        <v>6499962.680851515</v>
+        <v>6738133.640597099</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.733492875081512e-07</v>
+        <v>1.142531392745936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>5879615.36534572</v>
+        <v>6095055.622968217</v>
       </c>
     </row>
     <row r="3">
@@ -31290,28 +31290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2304.415669800361</v>
+        <v>2420.405816548865</v>
       </c>
       <c r="AB3" t="n">
-        <v>3153.003183065326</v>
+        <v>3311.706018970764</v>
       </c>
       <c r="AC3" t="n">
-        <v>2852.084984541213</v>
+        <v>2995.64144452866</v>
       </c>
       <c r="AD3" t="n">
-        <v>2304415.669800361</v>
+        <v>2420405.816548865</v>
       </c>
       <c r="AE3" t="n">
-        <v>3153003.183065325</v>
+        <v>3311706.018970765</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.172179640317767e-06</v>
+        <v>1.73175570034591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.34791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2852084.984541213</v>
+        <v>2995641.44452866</v>
       </c>
     </row>
     <row r="4">
@@ -31396,28 +31396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1877.064380278449</v>
+        <v>1976.545476603082</v>
       </c>
       <c r="AB4" t="n">
-        <v>2568.282295332978</v>
+        <v>2704.396720120566</v>
       </c>
       <c r="AC4" t="n">
-        <v>2323.169037673239</v>
+        <v>2446.292892796895</v>
       </c>
       <c r="AD4" t="n">
-        <v>1877064.380278449</v>
+        <v>1976545.476603082</v>
       </c>
       <c r="AE4" t="n">
-        <v>2568282.295332978</v>
+        <v>2704396.720120566</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.31420140561224e-06</v>
+        <v>1.941575930251301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.39166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2323169.037673239</v>
+        <v>2446292.892796895</v>
       </c>
     </row>
     <row r="5">
@@ -31502,28 +31502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1685.857859743184</v>
+        <v>1777.127101283168</v>
       </c>
       <c r="AB5" t="n">
-        <v>2306.665098500287</v>
+        <v>2431.543701290052</v>
       </c>
       <c r="AC5" t="n">
-        <v>2086.520218924217</v>
+        <v>2199.480583131948</v>
       </c>
       <c r="AD5" t="n">
-        <v>1685857.859743184</v>
+        <v>1777127.101283168</v>
       </c>
       <c r="AE5" t="n">
-        <v>2306665.098500287</v>
+        <v>2431543.701290052</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.387751138885001e-06</v>
+        <v>2.050236894384321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.09791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2086520.218924217</v>
+        <v>2199480.583131948</v>
       </c>
     </row>
     <row r="6">
@@ -31608,28 +31608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1560.695333448482</v>
+        <v>1651.879234133894</v>
       </c>
       <c r="AB6" t="n">
-        <v>2135.412208242922</v>
+        <v>2260.17404391049</v>
       </c>
       <c r="AC6" t="n">
-        <v>1931.611464158075</v>
+        <v>2044.466205333866</v>
       </c>
       <c r="AD6" t="n">
-        <v>1560695.333448482</v>
+        <v>1651879.234133894</v>
       </c>
       <c r="AE6" t="n">
-        <v>2135412.208242922</v>
+        <v>2260174.04391049</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.433604319879316e-06</v>
+        <v>2.117979503822898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.36041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1931611.464158075</v>
+        <v>2044466.205333866</v>
       </c>
     </row>
     <row r="7">
@@ -31714,28 +31714,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1464.794376158401</v>
+        <v>1564.190042119913</v>
       </c>
       <c r="AB7" t="n">
-        <v>2004.196287626998</v>
+        <v>2140.19382282284</v>
       </c>
       <c r="AC7" t="n">
-        <v>1812.918606843033</v>
+        <v>1935.936728153523</v>
       </c>
       <c r="AD7" t="n">
-        <v>1464794.376158401</v>
+        <v>1564190.042119913</v>
       </c>
       <c r="AE7" t="n">
-        <v>2004196.287626998</v>
+        <v>2140193.822822839</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465147615529768e-06</v>
+        <v>2.164580963336013e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.87916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1812918.606843033</v>
+        <v>1935936.728153523</v>
       </c>
     </row>
     <row r="8">
@@ -31820,28 +31820,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1388.381908435662</v>
+        <v>1479.651060467095</v>
       </c>
       <c r="AB8" t="n">
-        <v>1899.645378208588</v>
+        <v>2024.523858528806</v>
       </c>
       <c r="AC8" t="n">
-        <v>1718.345889481394</v>
+        <v>1831.306142907897</v>
       </c>
       <c r="AD8" t="n">
-        <v>1388381.908435662</v>
+        <v>1479651.060467095</v>
       </c>
       <c r="AE8" t="n">
-        <v>1899645.378208588</v>
+        <v>2024523.858528806</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.489305163905968e-06</v>
+        <v>2.200270861597277e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.52291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1718345.889481394</v>
+        <v>1831306.142907897</v>
       </c>
     </row>
     <row r="9">
@@ -31926,28 +31926,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1379.838866983521</v>
+        <v>1471.108019014954</v>
       </c>
       <c r="AB9" t="n">
-        <v>1887.956412001379</v>
+        <v>2012.834892321597</v>
       </c>
       <c r="AC9" t="n">
-        <v>1707.772501803433</v>
+        <v>1820.732755229937</v>
       </c>
       <c r="AD9" t="n">
-        <v>1379838.866983521</v>
+        <v>1471108.019014954</v>
       </c>
       <c r="AE9" t="n">
-        <v>1887956.41200138</v>
+        <v>2012834.892321597</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.488074206026926e-06</v>
+        <v>2.198452268055302e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.54166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1707772.501803434</v>
+        <v>1820732.755229937</v>
       </c>
     </row>
     <row r="10">
@@ -32032,28 +32032,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1385.713009404821</v>
+        <v>1476.982161436255</v>
       </c>
       <c r="AB10" t="n">
-        <v>1895.993672811077</v>
+        <v>2020.872153131294</v>
       </c>
       <c r="AC10" t="n">
-        <v>1715.04269772182</v>
+        <v>1828.002951148324</v>
       </c>
       <c r="AD10" t="n">
-        <v>1385713.009404821</v>
+        <v>1476982.161436255</v>
       </c>
       <c r="AE10" t="n">
-        <v>1895993.672811077</v>
+        <v>2020872.153131295</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.488381945496686e-06</v>
+        <v>2.198906916440796e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.5375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1715042.69772182</v>
+        <v>1828002.951148324</v>
       </c>
     </row>
   </sheetData>
@@ -32329,28 +32329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7707.946941007749</v>
+        <v>7938.058795997687</v>
       </c>
       <c r="AB2" t="n">
-        <v>10546.35305530688</v>
+        <v>10861.20224712269</v>
       </c>
       <c r="AC2" t="n">
-        <v>9539.823921607465</v>
+        <v>9824.624348449981</v>
       </c>
       <c r="AD2" t="n">
-        <v>7707946.941007749</v>
+        <v>7938058.795997687</v>
       </c>
       <c r="AE2" t="n">
-        <v>10546353.05530688</v>
+        <v>10861202.24712269</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.965053884739408e-07</v>
+        <v>8.662266427974862e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.78333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9539823.921607465</v>
+        <v>9824624.348449981</v>
       </c>
     </row>
     <row r="3">
@@ -32435,28 +32435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2968.036582492858</v>
+        <v>3104.329626235021</v>
       </c>
       <c r="AB3" t="n">
-        <v>4060.998592699661</v>
+        <v>4247.480747972425</v>
       </c>
       <c r="AC3" t="n">
-        <v>3673.422586659574</v>
+        <v>3842.107146762448</v>
       </c>
       <c r="AD3" t="n">
-        <v>2968036.582492858</v>
+        <v>3104329.626235021</v>
       </c>
       <c r="AE3" t="n">
-        <v>4060998.592699661</v>
+        <v>4247480.747972425</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.036285398967033e-06</v>
+        <v>1.504861547728469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.80625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3673422.586659574</v>
+        <v>3842107.146762448</v>
       </c>
     </row>
     <row r="4">
@@ -32541,28 +32541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2326.533924451674</v>
+        <v>2445.769002512424</v>
       </c>
       <c r="AB4" t="n">
-        <v>3183.266354867782</v>
+        <v>3346.409048950901</v>
       </c>
       <c r="AC4" t="n">
-        <v>2879.45988170147</v>
+        <v>3027.032466033499</v>
       </c>
       <c r="AD4" t="n">
-        <v>2326533.924451674</v>
+        <v>2445769.002512424</v>
       </c>
       <c r="AE4" t="n">
-        <v>3183266.354867782</v>
+        <v>3346409.048950901</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196124526179289e-06</v>
+        <v>1.736974975751261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.825</v>
       </c>
       <c r="AH4" t="n">
-        <v>2879459.88170147</v>
+        <v>3027032.466033499</v>
       </c>
     </row>
     <row r="5">
@@ -32647,28 +32647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2069.64507670268</v>
+        <v>2171.90761944514</v>
       </c>
       <c r="AB5" t="n">
-        <v>2831.779700241316</v>
+        <v>2971.699822726528</v>
       </c>
       <c r="AC5" t="n">
-        <v>2561.518620078056</v>
+        <v>2688.084962452404</v>
       </c>
       <c r="AD5" t="n">
-        <v>2069645.07670268</v>
+        <v>2171907.61944514</v>
       </c>
       <c r="AE5" t="n">
-        <v>2831779.700241316</v>
+        <v>2971699.822726528</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279602660335598e-06</v>
+        <v>1.858199335655557e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.14166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2561518.620078056</v>
+        <v>2688084.962452404</v>
       </c>
     </row>
     <row r="6">
@@ -32753,28 +32753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1916.490755234433</v>
+        <v>2018.667957122321</v>
       </c>
       <c r="AB6" t="n">
-        <v>2622.22720091666</v>
+        <v>2762.030556279675</v>
       </c>
       <c r="AC6" t="n">
-        <v>2371.965517180165</v>
+        <v>2498.426236522575</v>
       </c>
       <c r="AD6" t="n">
-        <v>1916490.755234433</v>
+        <v>2018667.957122321</v>
       </c>
       <c r="AE6" t="n">
-        <v>2622227.20091666</v>
+        <v>2762030.556279675</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.33194330217783e-06</v>
+        <v>1.934206793996972e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.19375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2371965.517180165</v>
+        <v>2498426.236522575</v>
       </c>
     </row>
     <row r="7">
@@ -32859,28 +32859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1809.646388141153</v>
+        <v>1911.908841375061</v>
       </c>
       <c r="AB7" t="n">
-        <v>2476.038024218832</v>
+        <v>2615.958024234495</v>
       </c>
       <c r="AC7" t="n">
-        <v>2239.728430328578</v>
+        <v>2366.2946619217</v>
       </c>
       <c r="AD7" t="n">
-        <v>1809646.388141153</v>
+        <v>1911908.841375061</v>
       </c>
       <c r="AE7" t="n">
-        <v>2476038.024218832</v>
+        <v>2615958.024234495</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.366935912587934e-06</v>
+        <v>1.985021978610496e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.59791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2239728.430328578</v>
+        <v>2366294.6619217</v>
       </c>
     </row>
     <row r="8">
@@ -32965,28 +32965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1732.159165868689</v>
+        <v>1825.892725770441</v>
       </c>
       <c r="AB8" t="n">
-        <v>2370.016588210664</v>
+        <v>2498.266980101054</v>
       </c>
       <c r="AC8" t="n">
-        <v>2143.825531371011</v>
+        <v>2259.835885859937</v>
       </c>
       <c r="AD8" t="n">
-        <v>1732159.165868689</v>
+        <v>1825892.725770441</v>
       </c>
       <c r="AE8" t="n">
-        <v>2370016.588210664</v>
+        <v>2498266.980101054</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.393625191714285e-06</v>
+        <v>2.023779322807251e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2143825.53137101</v>
+        <v>2259835.885859937</v>
       </c>
     </row>
     <row r="9">
@@ -33071,28 +33071,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1657.368022234835</v>
+        <v>1759.545134614172</v>
       </c>
       <c r="AB9" t="n">
-        <v>2267.684045938439</v>
+        <v>2407.487278831905</v>
       </c>
       <c r="AC9" t="n">
-        <v>2051.259463308621</v>
+        <v>2177.720071869805</v>
       </c>
       <c r="AD9" t="n">
-        <v>1657368.022234835</v>
+        <v>1759545.134614171</v>
       </c>
       <c r="AE9" t="n">
-        <v>2267684.045938439</v>
+        <v>2407487.278831905</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.413790424831973e-06</v>
+        <v>2.053062649533689e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.85</v>
       </c>
       <c r="AH9" t="n">
-        <v>2051259.463308621</v>
+        <v>2177720.071869805</v>
       </c>
     </row>
     <row r="10">
@@ -33177,28 +33177,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1612.178758371486</v>
+        <v>1705.997569619259</v>
       </c>
       <c r="AB10" t="n">
-        <v>2205.854101510985</v>
+        <v>2334.221138054024</v>
       </c>
       <c r="AC10" t="n">
-        <v>1995.330481998452</v>
+        <v>2111.446348738091</v>
       </c>
       <c r="AD10" t="n">
-        <v>1612178.758371486</v>
+        <v>1705997.569619259</v>
       </c>
       <c r="AE10" t="n">
-        <v>2205854.101510985</v>
+        <v>2334221.138054024</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.424910957801285e-06</v>
+        <v>2.069211542949004e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.67916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1995330.481998452</v>
+        <v>2111446.348738091</v>
       </c>
     </row>
     <row r="11">
@@ -33283,28 +33283,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1550.798835194003</v>
+        <v>1644.447054241183</v>
       </c>
       <c r="AB11" t="n">
-        <v>2121.871382728455</v>
+        <v>2250.005007496648</v>
       </c>
       <c r="AC11" t="n">
-        <v>1919.36295602604</v>
+        <v>2035.267687483029</v>
       </c>
       <c r="AD11" t="n">
-        <v>1550798.835194003</v>
+        <v>1644447.054241183</v>
       </c>
       <c r="AE11" t="n">
-        <v>2121871.382728455</v>
+        <v>2250005.007496648</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.440183156412475e-06</v>
+        <v>2.091389356572703e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.44791666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1919362.95602604</v>
+        <v>2035267.687483029</v>
       </c>
     </row>
     <row r="12">
@@ -33389,28 +33389,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1519.987163709605</v>
+        <v>1613.635382756786</v>
       </c>
       <c r="AB12" t="n">
-        <v>2079.713494488492</v>
+        <v>2207.847119256684</v>
       </c>
       <c r="AC12" t="n">
-        <v>1881.228557470731</v>
+        <v>1997.13328892772</v>
       </c>
       <c r="AD12" t="n">
-        <v>1519987.163709605</v>
+        <v>1613635.382756786</v>
       </c>
       <c r="AE12" t="n">
-        <v>2079713.494488491</v>
+        <v>2207847.119256685</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.447745118831608e-06</v>
+        <v>2.102370604095117e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.3375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1881228.557470731</v>
+        <v>1997133.28892772</v>
       </c>
     </row>
     <row r="13">
@@ -33495,28 +33495,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1521.845662504036</v>
+        <v>1615.493881551216</v>
       </c>
       <c r="AB13" t="n">
-        <v>2082.256374530212</v>
+        <v>2210.389999298405</v>
       </c>
       <c r="AC13" t="n">
-        <v>1883.528748610225</v>
+        <v>1999.433480067213</v>
       </c>
       <c r="AD13" t="n">
-        <v>1521845.662504036</v>
+        <v>1615493.881551216</v>
       </c>
       <c r="AE13" t="n">
-        <v>2082256.374530212</v>
+        <v>2210389.999298405</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.44818994015038e-06</v>
+        <v>2.10301655983173e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.33125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1883528.748610225</v>
+        <v>1999433.480067213</v>
       </c>
     </row>
     <row r="14">
@@ -33601,28 +33601,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1528.581945638213</v>
+        <v>1622.230164685394</v>
       </c>
       <c r="AB14" t="n">
-        <v>2091.473254298231</v>
+        <v>2219.606879066424</v>
       </c>
       <c r="AC14" t="n">
-        <v>1891.865982309156</v>
+        <v>2007.770713766144</v>
       </c>
       <c r="AD14" t="n">
-        <v>1528581.945638213</v>
+        <v>1622230.164685394</v>
       </c>
       <c r="AE14" t="n">
-        <v>2091473.254298231</v>
+        <v>2219606.879066424</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.448041666377456e-06</v>
+        <v>2.102801241252859e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.33125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1891865.982309156</v>
+        <v>2007770.713766144</v>
       </c>
     </row>
   </sheetData>
@@ -33898,28 +33898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>899.8243544238401</v>
+        <v>992.3280755457855</v>
       </c>
       <c r="AB2" t="n">
-        <v>1231.17937917151</v>
+        <v>1357.747051386711</v>
       </c>
       <c r="AC2" t="n">
-        <v>1113.677347194492</v>
+        <v>1228.165578412318</v>
       </c>
       <c r="AD2" t="n">
-        <v>899824.3544238401</v>
+        <v>992328.0755457855</v>
       </c>
       <c r="AE2" t="n">
-        <v>1231179.37917151</v>
+        <v>1357747.051386711</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467409009211794e-06</v>
+        <v>2.446083391533365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>1113677.347194492</v>
+        <v>1228165.578412318</v>
       </c>
     </row>
   </sheetData>
@@ -34195,28 +34195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2583.307740578334</v>
+        <v>2718.07500411204</v>
       </c>
       <c r="AB2" t="n">
-        <v>3534.59561815357</v>
+        <v>3718.990133632451</v>
       </c>
       <c r="AC2" t="n">
-        <v>3197.258773192967</v>
+        <v>3364.054934913866</v>
       </c>
       <c r="AD2" t="n">
-        <v>2583307.740578334</v>
+        <v>2718075.00411204</v>
       </c>
       <c r="AE2" t="n">
-        <v>3534595.61815357</v>
+        <v>3718990.133632451</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.051976955104574e-06</v>
+        <v>1.601010693872433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.34166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3197258.773192967</v>
+        <v>3364054.934913865</v>
       </c>
     </row>
     <row r="3">
@@ -34301,28 +34301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1564.793680114308</v>
+        <v>1667.961371945342</v>
       </c>
       <c r="AB3" t="n">
-        <v>2141.0197469574</v>
+        <v>2282.17833435796</v>
       </c>
       <c r="AC3" t="n">
-        <v>1936.683827247872</v>
+        <v>2064.370437184245</v>
       </c>
       <c r="AD3" t="n">
-        <v>1564793.680114308</v>
+        <v>1667961.371945342</v>
       </c>
       <c r="AE3" t="n">
-        <v>2141019.746957399</v>
+        <v>2282178.33435796</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.382822237787261e-06</v>
+        <v>2.104526320352649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.60208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1936683.827247872</v>
+        <v>2064370.437184245</v>
       </c>
     </row>
     <row r="4">
@@ -34407,28 +34407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1310.445763087519</v>
+        <v>1405.670913942738</v>
       </c>
       <c r="AB4" t="n">
-        <v>1793.00970584319</v>
+        <v>1923.300958280462</v>
       </c>
       <c r="AC4" t="n">
-        <v>1621.887376022443</v>
+        <v>1739.743814192023</v>
       </c>
       <c r="AD4" t="n">
-        <v>1310445.763087519</v>
+        <v>1405670.913942738</v>
       </c>
       <c r="AE4" t="n">
-        <v>1793009.70584319</v>
+        <v>1923300.958280462</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.498928356241057e-06</v>
+        <v>2.281228990849901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.69583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1621887.376022443</v>
+        <v>1739743.814192023</v>
       </c>
     </row>
     <row r="5">
@@ -34513,28 +34513,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1189.285717815023</v>
+        <v>1284.42552781567</v>
       </c>
       <c r="AB5" t="n">
-        <v>1627.233186697408</v>
+        <v>1757.407672012483</v>
       </c>
       <c r="AC5" t="n">
-        <v>1471.932335195129</v>
+        <v>1589.683150332769</v>
       </c>
       <c r="AD5" t="n">
-        <v>1189285.717815023</v>
+        <v>1284425.52781567</v>
       </c>
       <c r="AE5" t="n">
-        <v>1627233.186697408</v>
+        <v>1757407.672012483</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.549061377851908e-06</v>
+        <v>2.35752676840638e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.96041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1471932.335195129</v>
+        <v>1589683.150332769</v>
       </c>
     </row>
     <row r="6">
@@ -34619,28 +34619,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1189.743979069935</v>
+        <v>1284.883789070582</v>
       </c>
       <c r="AB6" t="n">
-        <v>1627.860199963439</v>
+        <v>1758.034685278513</v>
       </c>
       <c r="AC6" t="n">
-        <v>1472.499507195068</v>
+        <v>1590.250322332708</v>
       </c>
       <c r="AD6" t="n">
-        <v>1189743.979069935</v>
+        <v>1284883.789070582</v>
       </c>
       <c r="AE6" t="n">
-        <v>1627860.199963439</v>
+        <v>1758034.685278513</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.551510874021819e-06</v>
+        <v>2.36125467284725e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1472499.507195068</v>
+        <v>1590250.322332708</v>
       </c>
     </row>
   </sheetData>
@@ -34916,28 +34916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3749.712637196112</v>
+        <v>3904.700246903112</v>
       </c>
       <c r="AB2" t="n">
-        <v>5130.52225585841</v>
+        <v>5342.58314103031</v>
       </c>
       <c r="AC2" t="n">
-        <v>4640.872412492301</v>
+        <v>4832.694504412709</v>
       </c>
       <c r="AD2" t="n">
-        <v>3749712.637196112</v>
+        <v>3904700.246903112</v>
       </c>
       <c r="AE2" t="n">
-        <v>5130522.25585841</v>
+        <v>5342583.14103031</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.744723889047281e-07</v>
+        <v>1.305509181022268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.45625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4640872.412492301</v>
+        <v>4832694.504412709</v>
       </c>
     </row>
     <row r="3">
@@ -35022,28 +35022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2002.086390211668</v>
+        <v>2108.162013855053</v>
       </c>
       <c r="AB3" t="n">
-        <v>2739.342924905417</v>
+        <v>2884.480272900533</v>
       </c>
       <c r="AC3" t="n">
-        <v>2477.903880844386</v>
+        <v>2609.189524048395</v>
       </c>
       <c r="AD3" t="n">
-        <v>2002086.390211669</v>
+        <v>2108162.013855053</v>
       </c>
       <c r="AE3" t="n">
-        <v>2739342.924905417</v>
+        <v>2884480.272900533</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.249605635924987e-06</v>
+        <v>1.865549617181766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.21041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2477903.880844386</v>
+        <v>2609189.524048395</v>
       </c>
     </row>
     <row r="4">
@@ -35128,28 +35128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1654.174225218261</v>
+        <v>1752.168879054635</v>
       </c>
       <c r="AB4" t="n">
-        <v>2263.314151959983</v>
+        <v>2397.394760557919</v>
       </c>
       <c r="AC4" t="n">
-        <v>2047.306625878284</v>
+        <v>2168.59076937495</v>
       </c>
       <c r="AD4" t="n">
-        <v>1654174.225218261</v>
+        <v>1752168.879054636</v>
       </c>
       <c r="AE4" t="n">
-        <v>2263314.151959983</v>
+        <v>2397394.760557919</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.380886550116905e-06</v>
+        <v>2.06154029789978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2047306.625878284</v>
+        <v>2168590.76937495</v>
       </c>
     </row>
     <row r="5">
@@ -35234,28 +35234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1486.502370953626</v>
+        <v>1584.411683935429</v>
       </c>
       <c r="AB5" t="n">
-        <v>2033.898123794964</v>
+        <v>2167.861965270703</v>
       </c>
       <c r="AC5" t="n">
-        <v>1839.785741453917</v>
+        <v>1960.964261918645</v>
       </c>
       <c r="AD5" t="n">
-        <v>1486502.370953626</v>
+        <v>1584411.683935429</v>
       </c>
       <c r="AE5" t="n">
-        <v>2033898.123794964</v>
+        <v>2167861.965270703</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.449907294224992e-06</v>
+        <v>2.164582104888053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.58958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1839785.741453917</v>
+        <v>1960964.261918645</v>
       </c>
     </row>
     <row r="6">
@@ -35340,28 +35340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1365.810338703115</v>
+        <v>1463.634310830346</v>
       </c>
       <c r="AB6" t="n">
-        <v>1868.76196071314</v>
+        <v>2002.609035066681</v>
       </c>
       <c r="AC6" t="n">
-        <v>1690.409942006562</v>
+        <v>1811.48283943935</v>
       </c>
       <c r="AD6" t="n">
-        <v>1365810.338703115</v>
+        <v>1463634.310830346</v>
       </c>
       <c r="AE6" t="n">
-        <v>1868761.96071314</v>
+        <v>2002609.035066681</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.493143523449875e-06</v>
+        <v>2.229129933867039e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1690409.942006562</v>
+        <v>1811482.83943935</v>
       </c>
     </row>
     <row r="7">
@@ -35446,28 +35446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1301.672729966016</v>
+        <v>1391.501162649358</v>
       </c>
       <c r="AB7" t="n">
-        <v>1781.006054887442</v>
+        <v>1903.913279435551</v>
       </c>
       <c r="AC7" t="n">
-        <v>1611.029336666682</v>
+        <v>1722.206468205292</v>
       </c>
       <c r="AD7" t="n">
-        <v>1301672.729966016</v>
+        <v>1391501.162649358</v>
       </c>
       <c r="AE7" t="n">
-        <v>1781006.054887442</v>
+        <v>1903913.279435551</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.514368581432999e-06</v>
+        <v>2.260817049911269e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.62916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1611029.336666682</v>
+        <v>1722206.468205292</v>
       </c>
     </row>
     <row r="8">
@@ -35552,28 +35552,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1303.795537750839</v>
+        <v>1393.623970434182</v>
       </c>
       <c r="AB8" t="n">
-        <v>1783.910574150308</v>
+        <v>1906.817798698417</v>
       </c>
       <c r="AC8" t="n">
-        <v>1613.656652687618</v>
+        <v>1724.833784226228</v>
       </c>
       <c r="AD8" t="n">
-        <v>1303795.537750839</v>
+        <v>1393623.970434182</v>
       </c>
       <c r="AE8" t="n">
-        <v>1783910.574150308</v>
+        <v>1906817.798698417</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.51531191734336e-06</v>
+        <v>2.262225366179902e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1613656.652687618</v>
+        <v>1724833.784226228</v>
       </c>
     </row>
   </sheetData>
